--- a/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 3\Li2SO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\Li2SO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B847B-1273-458D-B3ED-4A4F69F2F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91C5FB-0C68-4691-AB5C-1660F30DC475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" activeTab="4" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -644,22 +644,46 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Parity Plot for Li2SO4 for n=3</a:t>
+              <a:t>Fig 8. Parity Plot for Li</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>SO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t> for n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27708480613147596"/>
+          <c:y val="0.92152030469692914"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -673,11 +697,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -688,7 +712,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13825412093749154"/>
+          <c:y val="9.628249510360129E-2"/>
+          <c:w val="0.82035069013872308"/>
+          <c:h val="0.66184596038072663"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1020,11 +1054,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1049,11 +1083,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1080,11 +1114,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1112,11 +1146,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1141,11 +1175,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1172,11 +1206,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1229,7 +1263,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4661,34 +4700,46 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs </a:t>
+              <a:t>Fig 7. Temperature vs Ø for Li</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t> for Li2SO4 n=3</a:t>
+              <a:t>SO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t> n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20786319444444445"/>
+          <c:y val="0.89664351851851842"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4702,11 +4753,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -6325,24 +6376,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1400">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6359,11 +6405,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -6391,11 +6437,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6406,6 +6452,7 @@
         <c:crossAx val="472873184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="472873184"/>
@@ -6421,11 +6468,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -6450,11 +6497,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -6481,11 +6528,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6513,10 +6560,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13941059870993175"/>
-          <c:y val="0.17413127729481273"/>
-          <c:w val="0.26916193021074031"/>
-          <c:h val="0.14602134150504861"/>
+          <c:x val="0.1688087962962963"/>
+          <c:y val="0.11239513888888888"/>
+          <c:w val="0.37205555555555553"/>
+          <c:h val="0.15778055555555556"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6534,11 +6581,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -6578,7 +6625,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10593,13 +10645,13 @@
       <xdr:col>47</xdr:col>
       <xdr:colOff>194880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>46025</xdr:rowOff>
+      <xdr:rowOff>46024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>247680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167404</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10633,12 +10685,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10891</cdr:x>
-      <cdr:y>0.1453</cdr:y>
+      <cdr:x>0.1401</cdr:x>
+      <cdr:y>0.09768</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.95879</cdr:x>
-      <cdr:y>0.85149</cdr:y>
+      <cdr:y>0.75664</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -10653,8 +10705,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="563851" y="502615"/>
-          <a:ext cx="4400009" cy="2442838"/>
+          <a:off x="605220" y="421956"/>
+          <a:ext cx="3536753" cy="2846720"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -10679,12 +10731,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.1319</cdr:x>
-      <cdr:y>0.14907</cdr:y>
+      <cdr:x>0.13719</cdr:x>
+      <cdr:y>0.09615</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.39949</cdr:x>
-      <cdr:y>0.25544</cdr:y>
+      <cdr:x>0.43819</cdr:x>
+      <cdr:y>0.19749</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -10699,8 +10751,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="682868" y="515646"/>
-          <a:ext cx="1385392" cy="367969"/>
+          <a:off x="592668" y="415382"/>
+          <a:ext cx="1300332" cy="437754"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10852,12 +10904,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.1702</cdr:x>
-      <cdr:y>0.17397</cdr:y>
+      <cdr:x>0.17726</cdr:x>
+      <cdr:y>0.11576</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.18755</cdr:x>
-      <cdr:y>0.19596</cdr:y>
+      <cdr:x>0.19461</cdr:x>
+      <cdr:y>0.13775</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -10872,8 +10924,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="881155" y="601790"/>
-          <a:ext cx="89826" cy="76085"/>
+          <a:off x="765744" y="500090"/>
+          <a:ext cx="74952" cy="94997"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartConnector">
           <a:avLst/>
@@ -11001,12 +11053,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.15733</cdr:x>
-      <cdr:y>0.23045</cdr:y>
+      <cdr:x>0.16791</cdr:x>
+      <cdr:y>0.16519</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.20421</cdr:x>
-      <cdr:y>0.23045</cdr:y>
+      <cdr:x>0.21479</cdr:x>
+      <cdr:y>0.16519</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -11021,8 +11073,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="814518" y="797172"/>
-          <a:ext cx="242719" cy="0"/>
+          <a:off x="725386" y="713604"/>
+          <a:ext cx="202521" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -11211,10 +11263,10 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12613,8 +12665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AU84"/>
   <sheetViews>
-    <sheetView topLeftCell="AP6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG20" sqref="BG20"/>
+    <sheetView tabSelected="1" topLeftCell="AP7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD22" sqref="BD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24162,8 +24214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26336,20 +26388,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26372,6 +26424,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -26386,12 +26446,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\Li2SO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91C5FB-0C68-4691-AB5C-1660F30DC475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="696" firstSheet="1" activeTab="4" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -11771,20 +11771,20 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.2</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.4</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>0.74239999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.5</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>0.74760000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>0.74939999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.8</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>0.79339999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>0.90010000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.5</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>0.88009999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2.5</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>0.82820000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>0.82540000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E18" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>0.77990000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E19" s="1">
         <v>1.19438</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E20" s="1">
         <v>1.16333</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E21" s="1">
         <v>1.13737</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>0.77610000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E22" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E24" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>0.85389999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
         <v>2.00387</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>0.83260000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
         <v>1.91442</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E28" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E29" s="1">
         <v>1.46208</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E30" s="1">
         <v>1.36084</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E31" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" s="1">
         <v>1.10141</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E33" s="1">
         <v>0.97075</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E34" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E35" s="1">
         <v>0.8679</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E36" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E37" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E38" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E39" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E40" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E41" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E42" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E43" s="1">
         <v>0.21228</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E44" s="1">
         <v>0.49833</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E45" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E46" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E47" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E48" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E49" s="1">
         <v>2.57735</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E50" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E51" s="1">
         <v>1.94278</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E52" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E53" s="1">
         <v>1.30464</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E54" s="1">
         <v>1.26715</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E55" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E56" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E57" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>0.7843</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E58" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E59" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E60" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E61" s="1">
         <v>2.79853</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E62" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>0.9476</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E63" s="1">
         <v>2.44503</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E64" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E65" s="1">
         <v>2.12548</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E66" s="1">
         <v>1.60666</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E67" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E68" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>0.7823</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E69" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -12665,44 +12665,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AU84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AP7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BD22" sqref="BD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="7"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="7"/>
-    <col min="25" max="25" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="7"/>
+    <col min="10" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="7"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="7"/>
+    <col min="25" max="25" width="8.90625" style="7"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="7" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="9" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="7"/>
-    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="7"/>
+    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4" t="s">
         <v>34</v>
       </c>
@@ -12721,7 +12721,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="6" t="s">
         <v>9</v>
@@ -12744,7 +12744,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="6" t="s">
         <v>10</v>
@@ -12767,7 +12767,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -12784,7 +12784,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -12793,7 +12793,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1.0960399999999999</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1.0263</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.94349000000000005</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.94342000000000004</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>0.74239999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.43031000000000003</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>0.74760000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.42624000000000001</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>0.74939999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15548000000000001</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1148</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0.79339999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2.7969200000000001</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0.90010000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2.5790999999999999</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2.5750299999999999</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>0.88009999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.9464699999999999</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>0.82820000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.9030499999999999</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>0.82540000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>0.77990000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.19438</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1.16333</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1.13737</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>0.77610000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>0.85389999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2.00387</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>0.83260000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1.91442</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1.46208</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1.36084</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1.10141</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.97075</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>0.8679</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.21228</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.49833</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2.57735</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1.94278</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1.30464</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1.26715</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>0.7843</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2.79853</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.9476</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2.44503</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2.12548</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1.60666</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>0.7823</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -21895,55 +21895,55 @@
         <v>0.77590000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
@@ -21961,13 +21961,13 @@
       <selection sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -21999,7 +21999,7 @@
         <v>268.44208538099599</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>267.91479389286201</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>263.97715944664998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>260.064009513982</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>254.423826929467</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>252.75800556148201</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -22047,7 +22047,7 @@
         <v>255.604330261109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>256.74023680022299</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>260.72596582661401</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>263.56791829167997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>268.12028891725902</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -22087,7 +22087,7 @@
         <v>272.10252015600099</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>281.77127966561102</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>289.16647720316899</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -22111,7 +22111,7 @@
         <v>295.992409800801</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>303.38848178527002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>307.37071302401199</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>313.63000402245501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>319.89104391472398</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>323.87152625964001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>327.28536700536898</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>339.23118627468102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>348.90694135959001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>350.04109900487902</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>365.41125238286702</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>368.82334423477101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>372.806449920425</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>377.36056943982902</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -22223,7 +22223,7 @@
         <v>418.33452841078002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -22231,7 +22231,7 @@
         <v>461.02590111754301</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -22253,17 +22253,17 @@
       <selection activeCell="G58" sqref="G58:H205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -22365,7 +22365,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -22633,7 +22633,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -22689,7 +22689,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>0.14816699999999999</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>0.147759</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G38">
         <v>0.14755599999999999</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>0.14735400000000001</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>0.14715300000000001</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G41">
         <v>0.146952</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>0.14675199999999999</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>0.14655299999999999</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G44">
         <v>0.14635500000000001</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G45">
         <v>0.14615700000000001</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G46">
         <v>0.14537600000000001</v>
       </c>
@@ -22931,7 +22931,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G47">
         <v>0.14499000000000001</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G48">
         <v>0.14479900000000001</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G49">
         <v>0.14441799999999999</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G50">
         <v>0.144229</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G51">
         <v>0.144041</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G52">
         <v>0.14385400000000001</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G53">
         <v>0.14366799999999999</v>
       </c>
@@ -22987,7 +22987,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G54">
         <v>0.143482</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G55">
         <v>0.14329800000000001</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G56">
         <v>0.14311399999999999</v>
       </c>
@@ -23011,7 +23011,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G57">
         <v>0.142932</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G58">
         <v>0.142569</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G59">
         <v>0.14238899999999999</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G60">
         <v>0.14221</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G61">
         <v>0.14203199999999999</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G62">
         <v>0.14185500000000001</v>
       </c>
@@ -23059,7 +23059,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G63">
         <v>0.141678</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G64">
         <v>0.14150299999999999</v>
       </c>
@@ -23075,7 +23075,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G65">
         <v>0.14132900000000001</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G66">
         <v>0.141155</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G67">
         <v>0.140983</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G68">
         <v>0.14064099999999999</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G69">
         <v>0.14030300000000001</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G70">
         <v>0.14013600000000001</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G71">
         <v>0.13963900000000001</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G72">
         <v>0.13947599999999999</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G73">
         <v>0.13931299999999999</v>
       </c>
@@ -23147,7 +23147,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G74">
         <v>0.139152</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G75">
         <v>0.13883200000000001</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G76">
         <v>0.138517</v>
       </c>
@@ -23171,7 +23171,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G77">
         <v>0.13836000000000001</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G78">
         <v>0.13820499999999999</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G79">
         <v>0.13805100000000001</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G80">
         <v>0.13789799999999999</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G81">
         <v>0.137297</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G82">
         <v>0.13714899999999999</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G83">
         <v>0.13700300000000001</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G84">
         <v>0.13685700000000001</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G85">
         <v>0.136713</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G86">
         <v>0.13657</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G87">
         <v>0.13642799999999999</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G88">
         <v>0.13628699999999999</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G89">
         <v>0.13600899999999999</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G90">
         <v>0.13587099999999999</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G91">
         <v>0.13573499999999999</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G92">
         <v>0.135599</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G93">
         <v>0.135465</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G94">
         <v>0.13533300000000001</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G95">
         <v>0.13520099999999999</v>
       </c>
@@ -23323,7 +23323,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G96">
         <v>0.13507</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G97">
         <v>0.134686</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G98">
         <v>0.13456000000000001</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G99">
         <v>0.134436</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G100">
         <v>0.13431199999999999</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G101">
         <v>0.13419</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G102">
         <v>0.13406899999999999</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G103">
         <v>0.13394900000000001</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G104">
         <v>0.13383100000000001</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G105">
         <v>0.133714</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G106">
         <v>0.13359799999999999</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G107">
         <v>0.13348299999999999</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G108">
         <v>0.13336999999999999</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G109">
         <v>0.13325699999999999</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G110">
         <v>0.13314599999999999</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G111">
         <v>0.13303699999999999</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G112">
         <v>0.13292799999999999</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G113">
         <v>0.13282099999999999</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G114">
         <v>0.13261100000000001</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G115">
         <v>0.13240499999999999</v>
       </c>
@@ -23483,7 +23483,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G116">
         <v>0.13230500000000001</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G117">
         <v>0.13220499999999999</v>
       </c>
@@ -23499,7 +23499,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G118">
         <v>0.132107</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G119">
         <v>0.13201099999999999</v>
       </c>
@@ -23515,7 +23515,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G120">
         <v>0.13182099999999999</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G121">
         <v>0.13172900000000001</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G122">
         <v>0.131637</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G123">
         <v>0.131547</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G124">
         <v>0.13145799999999999</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G125">
         <v>0.13137099999999999</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G126">
         <v>0.13128500000000001</v>
       </c>
@@ -23571,7 +23571,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G127">
         <v>0.13120100000000001</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G128">
         <v>0.13111700000000001</v>
       </c>
@@ -23587,7 +23587,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G129">
         <v>0.13103600000000001</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G130">
         <v>0.13095499999999999</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G131">
         <v>0.13087599999999999</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G132">
         <v>0.130722</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G133">
         <v>0.13064700000000001</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G134">
         <v>0.130574</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G135">
         <v>0.13050200000000001</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G136">
         <v>0.13036200000000001</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G137">
         <v>0.13029499999999999</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G138">
         <v>0.130163</v>
       </c>
@@ -23667,7 +23667,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G139">
         <v>0.13009999999999999</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G140">
         <v>0.13003799999999999</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G141">
         <v>0.12991900000000001</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G142">
         <v>0.129861</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G143">
         <v>0.129805</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G144">
         <v>0.12975100000000001</v>
       </c>
@@ -23715,7 +23715,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G145">
         <v>0.12969800000000001</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G146">
         <v>0.12964600000000001</v>
       </c>
@@ -23731,7 +23731,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G147">
         <v>0.12959599999999999</v>
       </c>
@@ -23739,7 +23739,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G148">
         <v>0.129547</v>
       </c>
@@ -23747,7 +23747,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G149">
         <v>0.1295</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G150">
         <v>0.12945499999999999</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G151">
         <v>0.129411</v>
       </c>
@@ -23771,7 +23771,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G152">
         <v>0.12928799999999999</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G153">
         <v>0.12925</v>
       </c>
@@ -23787,7 +23787,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G154">
         <v>0.12917899999999999</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G155">
         <v>0.12911400000000001</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G156">
         <v>0.129084</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G157">
         <v>0.129056</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G158">
         <v>0.129029</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G159">
         <v>0.12900300000000001</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G160">
         <v>0.12898000000000001</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G161">
         <v>0.12895799999999999</v>
       </c>
@@ -23851,7 +23851,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G162">
         <v>0.128937</v>
       </c>
@@ -23859,7 +23859,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G163">
         <v>0.128918</v>
       </c>
@@ -23867,7 +23867,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G164">
         <v>0.12890099999999999</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G165">
         <v>0.128885</v>
       </c>
@@ -23883,7 +23883,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G166">
         <v>0.12887100000000001</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G167">
         <v>0.12883900000000001</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G168">
         <v>0.128831</v>
       </c>
@@ -23907,7 +23907,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G169">
         <v>0.128825</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G170">
         <v>0.12881899999999999</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G171">
         <v>0.12881799999999999</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G172">
         <v>0.12881799999999999</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G173">
         <v>0.12882099999999999</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G174">
         <v>0.128825</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G175">
         <v>0.128831</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G176">
         <v>0.12884799999999999</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G177">
         <v>0.128859</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G178">
         <v>0.128886</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G179">
         <v>0.12890199999999999</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G180">
         <v>0.128939</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G181">
         <v>0.12896099999999999</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G182">
         <v>0.12898399999999999</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G183">
         <v>0.12900800000000001</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G184">
         <v>0.12903500000000001</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G185">
         <v>0.12906300000000001</v>
       </c>
@@ -24043,7 +24043,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G186">
         <v>0.12909300000000001</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G187">
         <v>0.12912499999999999</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G188">
         <v>0.129159</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G189">
         <v>0.129194</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G190">
         <v>0.12927</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G191">
         <v>0.129354</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G192">
         <v>0.12939800000000001</v>
       </c>
@@ -24099,7 +24099,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G193">
         <v>0.129444</v>
       </c>
@@ -24107,7 +24107,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G194">
         <v>0.129492</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G195">
         <v>0.12954199999999999</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G196">
         <v>0.12959399999999999</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G197">
         <v>0.12964700000000001</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G198">
         <v>0.12970300000000001</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G199">
         <v>0.12975999999999999</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G200">
         <v>0.12988</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G201">
         <v>0.129942</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G202">
         <v>0.13000700000000001</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G203">
         <v>0.130074</v>
       </c>
@@ -24187,7 +24187,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G204">
         <v>0.13014200000000001</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G205">
         <v>0.13021199999999999</v>
       </c>
@@ -24214,19 +24214,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -24334,7 +24334,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -24404,7 +24404,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>268.12028891725902</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>272.10252015600099</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -24428,7 +24428,7 @@
         <v>281.77127966561102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -24456,7 +24456,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -24470,7 +24470,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -24554,7 +24554,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -24582,7 +24582,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -24638,7 +24638,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -24652,7 +24652,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -24666,7 +24666,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36">
         <v>0.15219299999999999</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37">
         <v>0.151975</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D38">
         <v>0.15132399999999999</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D39">
         <v>0.150894</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>0.15068000000000001</v>
       </c>
@@ -24720,7 +24720,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D41">
         <v>0.15046699999999999</v>
       </c>
@@ -24728,7 +24728,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D42">
         <v>0.15004200000000001</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D43">
         <v>0.14983099999999999</v>
       </c>
@@ -24744,7 +24744,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D44">
         <v>0.14962</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D45">
         <v>0.14941099999999999</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D46">
         <v>0.149201</v>
       </c>
@@ -24768,7 +24768,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D47">
         <v>0.14899299999999999</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D48">
         <v>0.148786</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D49">
         <v>0.14857899999999999</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D50">
         <v>0.14816699999999999</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D51">
         <v>0.147759</v>
       </c>
@@ -24808,7 +24808,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D52">
         <v>0.14755599999999999</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D53">
         <v>0.14735400000000001</v>
       </c>
@@ -24824,7 +24824,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D54">
         <v>0.14715300000000001</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D55">
         <v>0.146952</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D56">
         <v>0.14675199999999999</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D57">
         <v>0.14655299999999999</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D58">
         <v>0.14635500000000001</v>
       </c>
@@ -24864,7 +24864,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D59">
         <v>0.14615700000000001</v>
       </c>
@@ -24872,7 +24872,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D60">
         <v>0.14537600000000001</v>
       </c>
@@ -24880,7 +24880,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D61">
         <v>0.14499000000000001</v>
       </c>
@@ -24888,7 +24888,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D62">
         <v>0.14479900000000001</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D63">
         <v>0.14441799999999999</v>
       </c>
@@ -24904,7 +24904,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D64">
         <v>0.144229</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65">
         <v>0.144041</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66">
         <v>0.14385400000000001</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D67">
         <v>0.14366799999999999</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D68">
         <v>0.143482</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D69">
         <v>0.14329800000000001</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D70">
         <v>0.14311399999999999</v>
       </c>
@@ -24960,7 +24960,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D71">
         <v>0.142932</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>0.142569</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>0.14238899999999999</v>
       </c>
@@ -24984,7 +24984,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>0.14221</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>0.14203199999999999</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>0.14185500000000001</v>
       </c>
@@ -25008,7 +25008,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>0.141678</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>0.14150299999999999</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>0.14132900000000001</v>
       </c>
@@ -25032,7 +25032,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>0.141155</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>0.140983</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>0.14064099999999999</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>0.14030300000000001</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>0.14013600000000001</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>0.13963900000000001</v>
       </c>
@@ -25080,7 +25080,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>0.13947599999999999</v>
       </c>
@@ -25088,7 +25088,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>0.13931299999999999</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>0.139152</v>
       </c>
@@ -25104,7 +25104,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>0.13883200000000001</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>0.138517</v>
       </c>
@@ -25120,7 +25120,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.13836000000000001</v>
       </c>
@@ -25128,7 +25128,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.13820499999999999</v>
       </c>
@@ -25136,7 +25136,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.13805100000000001</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.13789799999999999</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.137297</v>
       </c>
@@ -25160,7 +25160,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.13714899999999999</v>
       </c>
@@ -25168,7 +25168,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.13700300000000001</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.13685700000000001</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.136713</v>
       </c>
@@ -25192,7 +25192,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.13657</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.13642799999999999</v>
       </c>
@@ -25208,7 +25208,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.13628699999999999</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.13600899999999999</v>
       </c>
@@ -25224,7 +25224,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.13587099999999999</v>
       </c>
@@ -25232,7 +25232,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.13573499999999999</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.135599</v>
       </c>
@@ -25248,7 +25248,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.135465</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.13533300000000001</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.13520099999999999</v>
       </c>
@@ -25272,7 +25272,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.13507</v>
       </c>
@@ -25280,7 +25280,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.134686</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.13456000000000001</v>
       </c>
@@ -25296,7 +25296,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.134436</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.13431199999999999</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.13419</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.13406899999999999</v>
       </c>
@@ -25328,7 +25328,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.13394900000000001</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.13383100000000001</v>
       </c>
@@ -25344,7 +25344,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.133714</v>
       </c>
@@ -25352,7 +25352,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.13359799999999999</v>
       </c>
@@ -25360,7 +25360,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.13348299999999999</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.13336999999999999</v>
       </c>
@@ -25376,7 +25376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.13325699999999999</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.13314599999999999</v>
       </c>
@@ -25392,7 +25392,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.13303699999999999</v>
       </c>
@@ -25400,7 +25400,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.13292799999999999</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.13282099999999999</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.13261100000000001</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.13240499999999999</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.13230500000000001</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.13220499999999999</v>
       </c>
@@ -25448,7 +25448,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.132107</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.13201099999999999</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.13182099999999999</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.13172900000000001</v>
       </c>
@@ -25480,7 +25480,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.131637</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.131547</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.13145799999999999</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.13137099999999999</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.13128500000000001</v>
       </c>
@@ -25520,7 +25520,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.13120100000000001</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.13111700000000001</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.13103600000000001</v>
       </c>
@@ -25544,7 +25544,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.13095499999999999</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.13087599999999999</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.130722</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.13064700000000001</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.130574</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.13050200000000001</v>
       </c>
@@ -25592,7 +25592,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.13036200000000001</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.13029499999999999</v>
       </c>
@@ -25608,7 +25608,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.130163</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.13009999999999999</v>
       </c>
@@ -25624,7 +25624,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.13003799999999999</v>
       </c>
@@ -25632,7 +25632,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.12991900000000001</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.129861</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.129805</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.12975100000000001</v>
       </c>
@@ -25664,7 +25664,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.12969800000000001</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.12964600000000001</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.12959599999999999</v>
       </c>
@@ -25688,7 +25688,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.129547</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.1295</v>
       </c>
@@ -25704,7 +25704,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.12945499999999999</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.129411</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.12928799999999999</v>
       </c>
@@ -25728,7 +25728,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.12925</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.12917899999999999</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.12911400000000001</v>
       </c>
@@ -25752,7 +25752,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.129084</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.129056</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.129029</v>
       </c>
@@ -25776,7 +25776,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173">
         <v>0.12900300000000001</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.12898000000000001</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.12895799999999999</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.128937</v>
       </c>
@@ -25808,7 +25808,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.128918</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.12890099999999999</v>
       </c>
@@ -25824,7 +25824,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.128885</v>
       </c>
@@ -25832,7 +25832,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.12887100000000001</v>
       </c>
@@ -25840,7 +25840,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.12883900000000001</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.128831</v>
       </c>
@@ -25856,7 +25856,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.128825</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.12881899999999999</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.12881799999999999</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.12881799999999999</v>
       </c>
@@ -25888,7 +25888,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.12882099999999999</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.128825</v>
       </c>
@@ -25904,7 +25904,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.128831</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.12884799999999999</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.128859</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.128886</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193">
         <v>0.12890199999999999</v>
       </c>
@@ -25944,7 +25944,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.128939</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.12896099999999999</v>
       </c>
@@ -25960,7 +25960,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.12898399999999999</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197">
         <v>0.12900800000000001</v>
       </c>
@@ -25976,7 +25976,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.12903500000000001</v>
       </c>
@@ -25984,7 +25984,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.12906300000000001</v>
       </c>
@@ -25992,7 +25992,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.12909300000000001</v>
       </c>
@@ -26000,7 +26000,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.12912499999999999</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202">
         <v>0.129159</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203">
         <v>0.129194</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204">
         <v>0.12927</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205">
         <v>0.129354</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206">
         <v>0.12939800000000001</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207">
         <v>0.129444</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208">
         <v>0.129492</v>
       </c>
@@ -26064,7 +26064,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209">
         <v>0.12954199999999999</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210">
         <v>0.12959399999999999</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211">
         <v>0.12964700000000001</v>
       </c>
@@ -26088,7 +26088,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212">
         <v>0.12970300000000001</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213">
         <v>0.12975999999999999</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214">
         <v>0.12988</v>
       </c>
@@ -26112,7 +26112,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215">
         <v>0.129942</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216">
         <v>0.13000700000000001</v>
       </c>
@@ -26128,7 +26128,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217">
         <v>0.130074</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218">
         <v>0.13014200000000001</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219">
         <v>0.13021199999999999</v>
       </c>
@@ -26388,20 +26388,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26424,14 +26424,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -26446,4 +26438,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\Li2SO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91C5FB-0C68-4691-AB5C-1660F30DC475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A1657-6774-4887-B273-F790047B090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="696" firstSheet="1" activeTab="4" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -729,6 +729,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Points</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1027,6 +1030,127 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Parity Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknows'!$AW$9:$AW$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknows'!$AX$9:$AX$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72CC-446A-AB99-899A169DE8CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1043,7 +1167,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1097,8 +1220,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1129,7 +1252,7 @@
         <c:crossAx val="1501985871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1501985871"/>
@@ -1189,8 +1312,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1221,6 +1344,7 @@
         <c:crossAx val="1240791008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1232,6 +1356,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13588310185185185"/>
+          <c:y val="9.644074074074073E-2"/>
+          <c:w val="0.27256249999999999"/>
+          <c:h val="0.11962569444444446"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1278,7 +1442,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -6387,8 +6550,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>Ø</a:t>
+                  <a:t>Volume</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Fraction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6419,8 +6587,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6453,11 +6621,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4.0000000000000008E-2"/>
+        <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="472873184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6511,8 +6681,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6543,6 +6713,7 @@
         <c:crossAx val="596408272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10642,16 +10813,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>194880</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>354900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>46024</xdr:rowOff>
+      <xdr:rowOff>145084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167404</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>407700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10682,424 +10853,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.1401</cdr:x>
-      <cdr:y>0.09768</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.95879</cdr:x>
-      <cdr:y>0.75664</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D34628-9E02-ED97-3D76-9F236D61FA8A}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="605220" y="421956"/>
-          <a:ext cx="3536753" cy="2846720"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.13719</cdr:x>
-      <cdr:y>0.09615</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.43819</cdr:x>
-      <cdr:y>0.19749</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 15">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D2472E-199D-320F-B4B5-D1FD5AE9ECE5}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="592668" y="415382"/>
-          <a:ext cx="1300332" cy="437754"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>          Data Points</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>          Parity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000" baseline="0">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> line</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1000">
-            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.17726</cdr:x>
-      <cdr:y>0.11576</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.19461</cdr:x>
-      <cdr:y>0.13775</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="Flowchart: Connector 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1B5EC8-04A5-5479-1631-A054C1A0BE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="765744" y="500090"/>
-          <a:ext cx="74952" cy="94997"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.16791</cdr:x>
-      <cdr:y>0.16519</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.21479</cdr:x>
-      <cdr:y>0.16519</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="5" name="Straight Connector 4">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A39F19-756A-7990-29C5-A2A7C49E180A}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="725386" y="713604"/>
-          <a:ext cx="202521" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11140,7 +10893,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11253,7 +11006,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11771,20 +11524,20 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -11792,7 +11545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -11804,7 +11557,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11824,7 +11577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
@@ -11844,7 +11597,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.2</v>
       </c>
@@ -11864,7 +11617,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
@@ -11884,7 +11637,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.4</v>
       </c>
@@ -11904,7 +11657,7 @@
         <v>0.74239999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.5</v>
       </c>
@@ -11924,7 +11677,7 @@
         <v>0.74760000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -11944,7 +11697,7 @@
         <v>0.74939999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -11964,7 +11717,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.8</v>
       </c>
@@ -11984,7 +11737,7 @@
         <v>0.79339999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -12004,7 +11757,7 @@
         <v>0.90010000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.5</v>
       </c>
@@ -12024,7 +11777,7 @@
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -12044,7 +11797,7 @@
         <v>0.88009999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2.5</v>
       </c>
@@ -12064,7 +11817,7 @@
         <v>0.82820000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -12084,7 +11837,7 @@
         <v>0.82540000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -12095,7 +11848,7 @@
         <v>0.77990000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E19" s="1">
         <v>1.19438</v>
       </c>
@@ -12106,7 +11859,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E20" s="1">
         <v>1.16333</v>
       </c>
@@ -12117,7 +11870,7 @@
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" s="1">
         <v>1.13737</v>
       </c>
@@ -12128,7 +11881,7 @@
         <v>0.77610000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -12139,7 +11892,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -12150,7 +11903,7 @@
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E24" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -12161,7 +11914,7 @@
         <v>0.85389999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <v>2.00387</v>
       </c>
@@ -12172,7 +11925,7 @@
         <v>0.83260000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <v>1.91442</v>
       </c>
@@ -12183,7 +11936,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -12194,7 +11947,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E28" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -12205,7 +11958,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>1.46208</v>
       </c>
@@ -12216,7 +11969,7 @@
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>1.36084</v>
       </c>
@@ -12227,7 +11980,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -12238,7 +11991,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>1.10141</v>
       </c>
@@ -12249,7 +12002,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" s="1">
         <v>0.97075</v>
       </c>
@@ -12260,7 +12013,7 @@
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -12271,7 +12024,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35" s="1">
         <v>0.8679</v>
       </c>
@@ -12282,7 +12035,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -12293,7 +12046,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -12304,7 +12057,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -12315,7 +12068,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -12326,7 +12079,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E40" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -12337,7 +12090,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E41" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -12348,7 +12101,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E42" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -12359,7 +12112,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
         <v>0.21228</v>
       </c>
@@ -12370,7 +12123,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E44" s="1">
         <v>0.49833</v>
       </c>
@@ -12381,7 +12134,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -12392,7 +12145,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E46" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -12403,7 +12156,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E47" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -12414,7 +12167,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E48" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -12425,7 +12178,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" s="1">
         <v>2.57735</v>
       </c>
@@ -12436,7 +12189,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -12447,7 +12200,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="1">
         <v>1.94278</v>
       </c>
@@ -12458,7 +12211,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -12469,7 +12222,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="1">
         <v>1.30464</v>
       </c>
@@ -12480,7 +12233,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="1">
         <v>1.26715</v>
       </c>
@@ -12491,7 +12244,7 @@
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -12502,7 +12255,7 @@
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -12513,7 +12266,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -12524,7 +12277,7 @@
         <v>0.7843</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -12535,7 +12288,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -12546,7 +12299,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -12557,7 +12310,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61" s="1">
         <v>2.79853</v>
       </c>
@@ -12568,7 +12321,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -12579,7 +12332,7 @@
         <v>0.9476</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" s="1">
         <v>2.44503</v>
       </c>
@@ -12590,7 +12343,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E64" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -12601,7 +12354,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="1">
         <v>2.12548</v>
       </c>
@@ -12612,7 +12365,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="1">
         <v>1.60666</v>
       </c>
@@ -12623,7 +12376,7 @@
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E67" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -12634,7 +12387,7 @@
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -12645,7 +12398,7 @@
         <v>0.7823</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -12663,46 +12416,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
-  <dimension ref="A1:AU84"/>
+  <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView topLeftCell="AP7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD22" sqref="BD22"/>
+    <sheetView tabSelected="1" topLeftCell="AQ7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="7"/>
-    <col min="10" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" style="1"/>
-    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="7"/>
-    <col min="19" max="19" width="9.08984375" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="22" width="8.90625" style="7"/>
-    <col min="25" max="25" width="8.90625" style="7"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="7"/>
+    <col min="19" max="19" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="14.21875" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="7"/>
+    <col min="25" max="25" width="8.88671875" style="7"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="7" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="9" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.1796875" customWidth="1"/>
-    <col min="38" max="38" width="8.90625" style="7"/>
-    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.21875" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" style="7"/>
+    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>34</v>
       </c>
@@ -12721,7 +12474,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H2"/>
       <c r="K2" s="6" t="s">
         <v>9</v>
@@ -12744,7 +12497,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H3"/>
       <c r="K3" s="6" t="s">
         <v>10</v>
@@ -12767,7 +12520,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -12784,7 +12537,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -12793,7 +12546,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -12903,7 +12656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.0960399999999999</v>
       </c>
@@ -13039,7 +12792,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.0263</v>
       </c>
@@ -13171,7 +12924,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.94349000000000005</v>
       </c>
@@ -13308,8 +13061,14 @@
       <c r="AR9" s="1">
         <v>0.74250000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.94342000000000004</v>
       </c>
@@ -13446,8 +13205,16 @@
       <c r="AR10" s="1">
         <v>0.74239999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW10">
+        <f>AW9+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="AX10">
+        <f>AX9+0.1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.43031000000000003</v>
       </c>
@@ -13584,8 +13351,16 @@
       <c r="AR11" s="1">
         <v>0.74760000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW11">
+        <f t="shared" ref="AW11:AX29" si="28">AW10+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="28"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.42624000000000001</v>
       </c>
@@ -13722,8 +13497,16 @@
       <c r="AR12" s="1">
         <v>0.74939999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW12">
+        <f t="shared" si="28"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="28"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.15548000000000001</v>
       </c>
@@ -13860,8 +13643,16 @@
       <c r="AR13" s="1">
         <v>0.7833</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW13">
+        <f t="shared" si="28"/>
+        <v>0.4</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="28"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1148</v>
       </c>
@@ -13998,8 +13789,16 @@
       <c r="AR14" s="1">
         <v>0.79339999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW14">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2.7969200000000001</v>
       </c>
@@ -14137,15 +13936,23 @@
         <v>0.90010000000000001</v>
       </c>
       <c r="AT15">
-        <f t="shared" ref="AT15:AT70" si="28">AQ15</f>
+        <f t="shared" ref="AT15:AT70" si="29">AQ15</f>
         <v>0.92405811496217505</v>
       </c>
       <c r="AU15">
-        <f t="shared" ref="AU15:AU70" si="29">AR15</f>
+        <f t="shared" ref="AU15:AU70" si="30">AR15</f>
         <v>0.90010000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW15">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2.5790999999999999</v>
       </c>
@@ -14283,15 +14090,23 @@
         <v>0.88049999999999995</v>
       </c>
       <c r="AT16">
+        <f t="shared" si="29"/>
+        <v>0.86213040564075383</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="30"/>
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="28"/>
-        <v>0.86213040564075383</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="29"/>
-        <v>0.88049999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+        <v>0.7</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="28"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2.5750299999999999</v>
       </c>
@@ -14429,15 +14244,23 @@
         <v>0.88009999999999999</v>
       </c>
       <c r="AT17">
+        <f t="shared" si="29"/>
+        <v>0.86124550648997134</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="30"/>
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="28"/>
-        <v>0.86124550648997134</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="29"/>
-        <v>0.88009999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="28"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1.9464699999999999</v>
       </c>
@@ -14575,15 +14398,23 @@
         <v>0.82820000000000005</v>
       </c>
       <c r="AT18">
+        <f t="shared" si="29"/>
+        <v>0.81490959799641216</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="30"/>
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="28"/>
-        <v>0.81490959799641216</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="29"/>
-        <v>0.82820000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="28"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1.9030499999999999</v>
       </c>
@@ -14721,15 +14552,23 @@
         <v>0.82540000000000002</v>
       </c>
       <c r="AT19">
+        <f t="shared" si="29"/>
+        <v>0.81629914002657211</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="30"/>
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="AW19">
         <f t="shared" si="28"/>
-        <v>0.81629914002657211</v>
-      </c>
-      <c r="AU19">
-        <f t="shared" si="29"/>
-        <v>0.82540000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="28"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -14867,15 +14706,23 @@
         <v>0.77990000000000004</v>
       </c>
       <c r="AT20">
+        <f t="shared" si="29"/>
+        <v>0.82946637717888905</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="30"/>
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="AW20">
         <f t="shared" si="28"/>
-        <v>0.82946637717888905</v>
-      </c>
-      <c r="AU20">
-        <f t="shared" si="29"/>
-        <v>0.77990000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="28"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1.19438</v>
       </c>
@@ -15007,15 +14854,23 @@
         <v>0.78010000000000002</v>
       </c>
       <c r="AT21">
+        <f t="shared" si="29"/>
+        <v>0.82798742218968557</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="30"/>
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="AW21">
         <f t="shared" si="28"/>
-        <v>0.82798742218968557</v>
-      </c>
-      <c r="AU21">
-        <f t="shared" si="29"/>
-        <v>0.78010000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.2</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="28"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1.16333</v>
       </c>
@@ -15147,15 +15002,23 @@
         <v>0.77749999999999997</v>
       </c>
       <c r="AT22">
+        <f t="shared" si="29"/>
+        <v>0.82529477496265846</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="30"/>
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="AW22">
         <f t="shared" si="28"/>
-        <v>0.82529477496265846</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="29"/>
-        <v>0.77749999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.3</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="28"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1.13737</v>
       </c>
@@ -15287,15 +15150,23 @@
         <v>0.77610000000000001</v>
       </c>
       <c r="AT23">
+        <f t="shared" si="29"/>
+        <v>0.82265722990196266</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="30"/>
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="AW23">
         <f t="shared" si="28"/>
-        <v>0.82265722990196266</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" si="29"/>
-        <v>0.77610000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="28"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -15427,15 +15298,23 @@
         <v>0.87939999999999996</v>
       </c>
       <c r="AT24">
+        <f t="shared" si="29"/>
+        <v>0.85902491276987392</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="30"/>
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="AW24">
         <f t="shared" si="28"/>
-        <v>0.85902491276987392</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="29"/>
-        <v>0.87939999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="28"/>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -15567,15 +15446,23 @@
         <v>0.86750000000000005</v>
       </c>
       <c r="AT25">
+        <f t="shared" si="29"/>
+        <v>0.83584997412922013</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="30"/>
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AW25">
         <f t="shared" si="28"/>
-        <v>0.83584997412922013</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="29"/>
-        <v>0.86750000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="28"/>
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -15707,15 +15594,23 @@
         <v>0.85389999999999999</v>
       </c>
       <c r="AT26">
+        <f t="shared" si="29"/>
+        <v>0.81909571525991598</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="30"/>
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="AW26">
         <f t="shared" si="28"/>
-        <v>0.81909571525991598</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="29"/>
-        <v>0.85389999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="28"/>
+        <v>1.7000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2.00387</v>
       </c>
@@ -15847,15 +15742,23 @@
         <v>0.83260000000000001</v>
       </c>
       <c r="AT27">
+        <f t="shared" si="29"/>
+        <v>0.81360630493643404</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="30"/>
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="AW27">
         <f t="shared" si="28"/>
-        <v>0.81360630493643404</v>
-      </c>
-      <c r="AU27">
-        <f t="shared" si="29"/>
-        <v>0.83260000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="28"/>
+        <v>1.8000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1.91442</v>
       </c>
@@ -15987,15 +15890,23 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="AT28">
+        <f t="shared" si="29"/>
+        <v>0.81590579611995162</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="30"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AW28">
         <f t="shared" si="28"/>
-        <v>0.81590579611995162</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="29"/>
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="28"/>
+        <v>1.9000000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -16127,15 +16038,23 @@
         <v>0.8216</v>
       </c>
       <c r="AT29">
+        <f t="shared" si="29"/>
+        <v>0.81799660768135596</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="30"/>
+        <v>0.8216</v>
+      </c>
+      <c r="AW29">
         <f t="shared" si="28"/>
-        <v>0.81799660768135596</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="29"/>
-        <v>0.8216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="28"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -16267,15 +16186,15 @@
         <v>0.80589999999999995</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.82821896642154547</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1.46208</v>
       </c>
@@ -16407,15 +16326,15 @@
         <v>0.79420000000000002</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.83448729797585719</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1.36084</v>
       </c>
@@ -16547,15 +16466,15 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.83501477543177316</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -16687,15 +16606,15 @@
         <v>0.78090000000000004</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.83062401295971744</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1.10141</v>
       </c>
@@ -16827,15 +16746,15 @@
         <v>0.77569999999999995</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.81839013335433564</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.97075</v>
       </c>
@@ -16967,15 +16886,15 @@
         <v>0.76890000000000003</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.79625674996631157</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -17107,15 +17026,15 @@
         <v>0.76590000000000003</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77542624831297957</v>
       </c>
       <c r="AU36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.8679</v>
       </c>
@@ -17247,15 +17166,15 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77063180042910284</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -17387,15 +17306,15 @@
         <v>0.78820000000000001</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77474369690966416</v>
       </c>
       <c r="AU38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -17527,7 +17446,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -17659,7 +17578,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -17791,7 +17710,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -17923,7 +17842,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -18055,7 +17974,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -18187,7 +18106,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.21228</v>
       </c>
@@ -18319,7 +18238,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.49833</v>
       </c>
@@ -18451,7 +18370,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -18583,7 +18502,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -18715,7 +18634,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -18847,7 +18766,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -18979,7 +18898,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2.57735</v>
       </c>
@@ -19111,15 +19030,15 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.91616863591085751</v>
       </c>
       <c r="AU51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -19251,15 +19170,15 @@
         <v>0.92849999999999999</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.89664241738292882</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1.94278</v>
       </c>
@@ -19391,15 +19310,15 @@
         <v>0.86890000000000001</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.8569162005872708</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -19531,15 +19450,15 @@
         <v>0.83320000000000005</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.86476794464571494</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1.30464</v>
       </c>
@@ -19671,15 +19590,15 @@
         <v>0.8115</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.86090827466714404</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.8115</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1.26715</v>
       </c>
@@ -19811,15 +19730,15 @@
         <v>0.80889999999999995</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.85857225313753882</v>
       </c>
       <c r="AU56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -19951,15 +19870,15 @@
         <v>0.79159999999999997</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.8203785251026221</v>
       </c>
       <c r="AU57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -20091,15 +20010,15 @@
         <v>0.7893</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.8137220861301101</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.7893</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -20231,15 +20150,15 @@
         <v>0.7843</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78661080407045325</v>
       </c>
       <c r="AU59">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.7843</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -20371,7 +20290,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -20503,7 +20422,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -20635,15 +20554,15 @@
         <v>0.96289999999999998</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.99052730906701325</v>
       </c>
       <c r="AU62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2.79853</v>
       </c>
@@ -20775,15 +20694,15 @@
         <v>0.96060000000000001</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.98278430579960874</v>
       </c>
       <c r="AU63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -20915,15 +20834,15 @@
         <v>0.9476</v>
       </c>
       <c r="AT64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.94655863806222862</v>
       </c>
       <c r="AU64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.9476</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2.44503</v>
       </c>
@@ -21055,15 +20974,15 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="AT65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.88977942496603879</v>
       </c>
       <c r="AU65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -21195,15 +21114,15 @@
         <v>0.89790000000000003</v>
       </c>
       <c r="AT66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.86677591884466187</v>
       </c>
       <c r="AU66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2.12548</v>
       </c>
@@ -21335,15 +21254,15 @@
         <v>0.88390000000000002</v>
       </c>
       <c r="AT67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.85921752003224916</v>
       </c>
       <c r="AU67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1.60666</v>
       </c>
@@ -21475,15 +21394,15 @@
         <v>0.83340000000000003</v>
       </c>
       <c r="AT68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.86405777068876843</v>
       </c>
       <c r="AU68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -21615,15 +21534,15 @@
         <v>0.79690000000000005</v>
       </c>
       <c r="AT69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.84489317769223482</v>
       </c>
       <c r="AU69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -21755,15 +21674,15 @@
         <v>0.7823</v>
       </c>
       <c r="AT70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78807222066278393</v>
       </c>
       <c r="AU70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.7823</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -21848,7 +21767,7 @@
         <v>617.36384350443655</v>
       </c>
       <c r="AA71">
-        <f t="shared" ref="AA71" si="30">D71/(1000+D71)</f>
+        <f t="shared" ref="AA71" si="31">D71/(1000+D71)</f>
         <v>7.2223947052743986E-2</v>
       </c>
       <c r="AB71">
@@ -21876,7 +21795,7 @@
         <v>-36.110358110370832</v>
       </c>
       <c r="AM71">
-        <f t="shared" ref="AM71" si="31">(Q71-U71)+X71-AC71-AK71</f>
+        <f t="shared" ref="AM71" si="32">(Q71-U71)+X71-AC71-AK71</f>
         <v>-27.80763875642014</v>
       </c>
       <c r="AN71" s="1">
@@ -21895,55 +21814,55 @@
         <v>0.77590000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
@@ -21961,13 +21880,13 @@
       <selection sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -21975,7 +21894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -21983,7 +21902,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -21991,7 +21910,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -21999,7 +21918,7 @@
         <v>268.44208538099599</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -22007,7 +21926,7 @@
         <v>267.91479389286201</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -22015,7 +21934,7 @@
         <v>263.97715944664998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -22023,7 +21942,7 @@
         <v>260.064009513982</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -22031,7 +21950,7 @@
         <v>254.423826929467</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -22039,7 +21958,7 @@
         <v>252.75800556148201</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -22047,7 +21966,7 @@
         <v>255.604330261109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -22055,7 +21974,7 @@
         <v>256.74023680022299</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -22063,7 +21982,7 @@
         <v>260.72596582661401</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -22071,7 +21990,7 @@
         <v>263.56791829167997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -22079,7 +21998,7 @@
         <v>268.12028891725902</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -22087,7 +22006,7 @@
         <v>272.10252015600099</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -22095,7 +22014,7 @@
         <v>281.77127966561102</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -22103,7 +22022,7 @@
         <v>289.16647720316899</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -22111,7 +22030,7 @@
         <v>295.992409800801</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -22119,7 +22038,7 @@
         <v>303.38848178527002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -22127,7 +22046,7 @@
         <v>307.37071302401199</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -22135,7 +22054,7 @@
         <v>313.63000402245501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -22143,7 +22062,7 @@
         <v>319.89104391472398</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -22151,7 +22070,7 @@
         <v>323.87152625964001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -22159,7 +22078,7 @@
         <v>327.28536700536898</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -22167,7 +22086,7 @@
         <v>339.23118627468102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -22175,7 +22094,7 @@
         <v>348.90694135959001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -22183,7 +22102,7 @@
         <v>350.04109900487902</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -22191,7 +22110,7 @@
         <v>365.41125238286702</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -22199,7 +22118,7 @@
         <v>368.82334423477101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -22207,7 +22126,7 @@
         <v>372.806449920425</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -22215,7 +22134,7 @@
         <v>377.36056943982902</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -22223,7 +22142,7 @@
         <v>418.33452841078002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -22231,7 +22150,7 @@
         <v>461.02590111754301</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -22253,17 +22172,17 @@
       <selection activeCell="G58" sqref="G58:H205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -22271,7 +22190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -22285,7 +22204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -22305,7 +22224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -22325,7 +22244,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -22345,7 +22264,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -22365,7 +22284,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -22385,7 +22304,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -22405,7 +22324,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -22425,7 +22344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -22445,7 +22364,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -22465,7 +22384,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -22485,7 +22404,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -22505,7 +22424,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -22525,7 +22444,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -22545,7 +22464,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -22565,7 +22484,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -22585,7 +22504,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -22605,7 +22524,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -22619,7 +22538,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -22633,7 +22552,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -22647,7 +22566,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -22661,7 +22580,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -22675,7 +22594,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -22689,7 +22608,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -22703,7 +22622,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -22717,7 +22636,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -22731,7 +22650,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -22745,7 +22664,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -22759,7 +22678,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -22773,7 +22692,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -22787,7 +22706,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -22801,7 +22720,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -22815,7 +22734,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -22829,7 +22748,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -22843,7 +22762,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>0.14816699999999999</v>
       </c>
@@ -22851,7 +22770,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>0.147759</v>
       </c>
@@ -22859,7 +22778,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>0.14755599999999999</v>
       </c>
@@ -22867,7 +22786,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>0.14735400000000001</v>
       </c>
@@ -22875,7 +22794,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>0.14715300000000001</v>
       </c>
@@ -22883,7 +22802,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>0.146952</v>
       </c>
@@ -22891,7 +22810,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>0.14675199999999999</v>
       </c>
@@ -22899,7 +22818,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>0.14655299999999999</v>
       </c>
@@ -22907,7 +22826,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>0.14635500000000001</v>
       </c>
@@ -22915,7 +22834,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>0.14615700000000001</v>
       </c>
@@ -22923,7 +22842,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>0.14537600000000001</v>
       </c>
@@ -22931,7 +22850,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>0.14499000000000001</v>
       </c>
@@ -22939,7 +22858,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G48">
         <v>0.14479900000000001</v>
       </c>
@@ -22947,7 +22866,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>0.14441799999999999</v>
       </c>
@@ -22955,7 +22874,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>0.144229</v>
       </c>
@@ -22963,7 +22882,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>0.144041</v>
       </c>
@@ -22971,7 +22890,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>0.14385400000000001</v>
       </c>
@@ -22979,7 +22898,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>0.14366799999999999</v>
       </c>
@@ -22987,7 +22906,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>0.143482</v>
       </c>
@@ -22995,7 +22914,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G55">
         <v>0.14329800000000001</v>
       </c>
@@ -23003,7 +22922,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G56">
         <v>0.14311399999999999</v>
       </c>
@@ -23011,7 +22930,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G57">
         <v>0.142932</v>
       </c>
@@ -23019,7 +22938,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G58">
         <v>0.142569</v>
       </c>
@@ -23027,7 +22946,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G59">
         <v>0.14238899999999999</v>
       </c>
@@ -23035,7 +22954,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G60">
         <v>0.14221</v>
       </c>
@@ -23043,7 +22962,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G61">
         <v>0.14203199999999999</v>
       </c>
@@ -23051,7 +22970,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G62">
         <v>0.14185500000000001</v>
       </c>
@@ -23059,7 +22978,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G63">
         <v>0.141678</v>
       </c>
@@ -23067,7 +22986,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G64">
         <v>0.14150299999999999</v>
       </c>
@@ -23075,7 +22994,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G65">
         <v>0.14132900000000001</v>
       </c>
@@ -23083,7 +23002,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G66">
         <v>0.141155</v>
       </c>
@@ -23091,7 +23010,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G67">
         <v>0.140983</v>
       </c>
@@ -23099,7 +23018,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G68">
         <v>0.14064099999999999</v>
       </c>
@@ -23107,7 +23026,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G69">
         <v>0.14030300000000001</v>
       </c>
@@ -23115,7 +23034,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G70">
         <v>0.14013600000000001</v>
       </c>
@@ -23123,7 +23042,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G71">
         <v>0.13963900000000001</v>
       </c>
@@ -23131,7 +23050,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G72">
         <v>0.13947599999999999</v>
       </c>
@@ -23139,7 +23058,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G73">
         <v>0.13931299999999999</v>
       </c>
@@ -23147,7 +23066,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G74">
         <v>0.139152</v>
       </c>
@@ -23155,7 +23074,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G75">
         <v>0.13883200000000001</v>
       </c>
@@ -23163,7 +23082,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G76">
         <v>0.138517</v>
       </c>
@@ -23171,7 +23090,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G77">
         <v>0.13836000000000001</v>
       </c>
@@ -23179,7 +23098,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G78">
         <v>0.13820499999999999</v>
       </c>
@@ -23187,7 +23106,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G79">
         <v>0.13805100000000001</v>
       </c>
@@ -23195,7 +23114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G80">
         <v>0.13789799999999999</v>
       </c>
@@ -23203,7 +23122,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81">
         <v>0.137297</v>
       </c>
@@ -23211,7 +23130,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82">
         <v>0.13714899999999999</v>
       </c>
@@ -23219,7 +23138,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83">
         <v>0.13700300000000001</v>
       </c>
@@ -23227,7 +23146,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84">
         <v>0.13685700000000001</v>
       </c>
@@ -23235,7 +23154,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85">
         <v>0.136713</v>
       </c>
@@ -23243,7 +23162,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G86">
         <v>0.13657</v>
       </c>
@@ -23251,7 +23170,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G87">
         <v>0.13642799999999999</v>
       </c>
@@ -23259,7 +23178,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G88">
         <v>0.13628699999999999</v>
       </c>
@@ -23267,7 +23186,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G89">
         <v>0.13600899999999999</v>
       </c>
@@ -23275,7 +23194,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G90">
         <v>0.13587099999999999</v>
       </c>
@@ -23283,7 +23202,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G91">
         <v>0.13573499999999999</v>
       </c>
@@ -23291,7 +23210,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G92">
         <v>0.135599</v>
       </c>
@@ -23299,7 +23218,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G93">
         <v>0.135465</v>
       </c>
@@ -23307,7 +23226,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G94">
         <v>0.13533300000000001</v>
       </c>
@@ -23315,7 +23234,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G95">
         <v>0.13520099999999999</v>
       </c>
@@ -23323,7 +23242,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G96">
         <v>0.13507</v>
       </c>
@@ -23331,7 +23250,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G97">
         <v>0.134686</v>
       </c>
@@ -23339,7 +23258,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G98">
         <v>0.13456000000000001</v>
       </c>
@@ -23347,7 +23266,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G99">
         <v>0.134436</v>
       </c>
@@ -23355,7 +23274,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G100">
         <v>0.13431199999999999</v>
       </c>
@@ -23363,7 +23282,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G101">
         <v>0.13419</v>
       </c>
@@ -23371,7 +23290,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G102">
         <v>0.13406899999999999</v>
       </c>
@@ -23379,7 +23298,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G103">
         <v>0.13394900000000001</v>
       </c>
@@ -23387,7 +23306,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G104">
         <v>0.13383100000000001</v>
       </c>
@@ -23395,7 +23314,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G105">
         <v>0.133714</v>
       </c>
@@ -23403,7 +23322,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G106">
         <v>0.13359799999999999</v>
       </c>
@@ -23411,7 +23330,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G107">
         <v>0.13348299999999999</v>
       </c>
@@ -23419,7 +23338,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G108">
         <v>0.13336999999999999</v>
       </c>
@@ -23427,7 +23346,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G109">
         <v>0.13325699999999999</v>
       </c>
@@ -23435,7 +23354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G110">
         <v>0.13314599999999999</v>
       </c>
@@ -23443,7 +23362,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G111">
         <v>0.13303699999999999</v>
       </c>
@@ -23451,7 +23370,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G112">
         <v>0.13292799999999999</v>
       </c>
@@ -23459,7 +23378,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G113">
         <v>0.13282099999999999</v>
       </c>
@@ -23467,7 +23386,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G114">
         <v>0.13261100000000001</v>
       </c>
@@ -23475,7 +23394,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G115">
         <v>0.13240499999999999</v>
       </c>
@@ -23483,7 +23402,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G116">
         <v>0.13230500000000001</v>
       </c>
@@ -23491,7 +23410,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G117">
         <v>0.13220499999999999</v>
       </c>
@@ -23499,7 +23418,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G118">
         <v>0.132107</v>
       </c>
@@ -23507,7 +23426,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G119">
         <v>0.13201099999999999</v>
       </c>
@@ -23515,7 +23434,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G120">
         <v>0.13182099999999999</v>
       </c>
@@ -23523,7 +23442,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G121">
         <v>0.13172900000000001</v>
       </c>
@@ -23531,7 +23450,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G122">
         <v>0.131637</v>
       </c>
@@ -23539,7 +23458,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G123">
         <v>0.131547</v>
       </c>
@@ -23547,7 +23466,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G124">
         <v>0.13145799999999999</v>
       </c>
@@ -23555,7 +23474,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G125">
         <v>0.13137099999999999</v>
       </c>
@@ -23563,7 +23482,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G126">
         <v>0.13128500000000001</v>
       </c>
@@ -23571,7 +23490,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G127">
         <v>0.13120100000000001</v>
       </c>
@@ -23579,7 +23498,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G128">
         <v>0.13111700000000001</v>
       </c>
@@ -23587,7 +23506,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G129">
         <v>0.13103600000000001</v>
       </c>
@@ -23595,7 +23514,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G130">
         <v>0.13095499999999999</v>
       </c>
@@ -23603,7 +23522,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G131">
         <v>0.13087599999999999</v>
       </c>
@@ -23611,7 +23530,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G132">
         <v>0.130722</v>
       </c>
@@ -23619,7 +23538,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G133">
         <v>0.13064700000000001</v>
       </c>
@@ -23627,7 +23546,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G134">
         <v>0.130574</v>
       </c>
@@ -23635,7 +23554,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G135">
         <v>0.13050200000000001</v>
       </c>
@@ -23643,7 +23562,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G136">
         <v>0.13036200000000001</v>
       </c>
@@ -23651,7 +23570,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G137">
         <v>0.13029499999999999</v>
       </c>
@@ -23659,7 +23578,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G138">
         <v>0.130163</v>
       </c>
@@ -23667,7 +23586,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G139">
         <v>0.13009999999999999</v>
       </c>
@@ -23675,7 +23594,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G140">
         <v>0.13003799999999999</v>
       </c>
@@ -23683,7 +23602,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G141">
         <v>0.12991900000000001</v>
       </c>
@@ -23691,7 +23610,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G142">
         <v>0.129861</v>
       </c>
@@ -23699,7 +23618,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G143">
         <v>0.129805</v>
       </c>
@@ -23707,7 +23626,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G144">
         <v>0.12975100000000001</v>
       </c>
@@ -23715,7 +23634,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G145">
         <v>0.12969800000000001</v>
       </c>
@@ -23723,7 +23642,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G146">
         <v>0.12964600000000001</v>
       </c>
@@ -23731,7 +23650,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G147">
         <v>0.12959599999999999</v>
       </c>
@@ -23739,7 +23658,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G148">
         <v>0.129547</v>
       </c>
@@ -23747,7 +23666,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G149">
         <v>0.1295</v>
       </c>
@@ -23755,7 +23674,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G150">
         <v>0.12945499999999999</v>
       </c>
@@ -23763,7 +23682,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G151">
         <v>0.129411</v>
       </c>
@@ -23771,7 +23690,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G152">
         <v>0.12928799999999999</v>
       </c>
@@ -23779,7 +23698,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G153">
         <v>0.12925</v>
       </c>
@@ -23787,7 +23706,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G154">
         <v>0.12917899999999999</v>
       </c>
@@ -23795,7 +23714,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G155">
         <v>0.12911400000000001</v>
       </c>
@@ -23803,7 +23722,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G156">
         <v>0.129084</v>
       </c>
@@ -23811,7 +23730,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G157">
         <v>0.129056</v>
       </c>
@@ -23819,7 +23738,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G158">
         <v>0.129029</v>
       </c>
@@ -23827,7 +23746,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G159">
         <v>0.12900300000000001</v>
       </c>
@@ -23835,7 +23754,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G160">
         <v>0.12898000000000001</v>
       </c>
@@ -23843,7 +23762,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G161">
         <v>0.12895799999999999</v>
       </c>
@@ -23851,7 +23770,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G162">
         <v>0.128937</v>
       </c>
@@ -23859,7 +23778,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G163">
         <v>0.128918</v>
       </c>
@@ -23867,7 +23786,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G164">
         <v>0.12890099999999999</v>
       </c>
@@ -23875,7 +23794,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G165">
         <v>0.128885</v>
       </c>
@@ -23883,7 +23802,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G166">
         <v>0.12887100000000001</v>
       </c>
@@ -23891,7 +23810,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G167">
         <v>0.12883900000000001</v>
       </c>
@@ -23899,7 +23818,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G168">
         <v>0.128831</v>
       </c>
@@ -23907,7 +23826,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G169">
         <v>0.128825</v>
       </c>
@@ -23915,7 +23834,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G170">
         <v>0.12881899999999999</v>
       </c>
@@ -23923,7 +23842,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G171">
         <v>0.12881799999999999</v>
       </c>
@@ -23931,7 +23850,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G172">
         <v>0.12881799999999999</v>
       </c>
@@ -23939,7 +23858,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G173">
         <v>0.12882099999999999</v>
       </c>
@@ -23947,7 +23866,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G174">
         <v>0.128825</v>
       </c>
@@ -23955,7 +23874,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G175">
         <v>0.128831</v>
       </c>
@@ -23963,7 +23882,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G176">
         <v>0.12884799999999999</v>
       </c>
@@ -23971,7 +23890,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G177">
         <v>0.128859</v>
       </c>
@@ -23979,7 +23898,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G178">
         <v>0.128886</v>
       </c>
@@ -23987,7 +23906,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G179">
         <v>0.12890199999999999</v>
       </c>
@@ -23995,7 +23914,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G180">
         <v>0.128939</v>
       </c>
@@ -24003,7 +23922,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G181">
         <v>0.12896099999999999</v>
       </c>
@@ -24011,7 +23930,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G182">
         <v>0.12898399999999999</v>
       </c>
@@ -24019,7 +23938,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G183">
         <v>0.12900800000000001</v>
       </c>
@@ -24027,7 +23946,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G184">
         <v>0.12903500000000001</v>
       </c>
@@ -24035,7 +23954,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G185">
         <v>0.12906300000000001</v>
       </c>
@@ -24043,7 +23962,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G186">
         <v>0.12909300000000001</v>
       </c>
@@ -24051,7 +23970,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G187">
         <v>0.12912499999999999</v>
       </c>
@@ -24059,7 +23978,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G188">
         <v>0.129159</v>
       </c>
@@ -24067,7 +23986,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G189">
         <v>0.129194</v>
       </c>
@@ -24075,7 +23994,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G190">
         <v>0.12927</v>
       </c>
@@ -24083,7 +24002,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G191">
         <v>0.129354</v>
       </c>
@@ -24091,7 +24010,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G192">
         <v>0.12939800000000001</v>
       </c>
@@ -24099,7 +24018,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G193">
         <v>0.129444</v>
       </c>
@@ -24107,7 +24026,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G194">
         <v>0.129492</v>
       </c>
@@ -24115,7 +24034,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G195">
         <v>0.12954199999999999</v>
       </c>
@@ -24123,7 +24042,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G196">
         <v>0.12959399999999999</v>
       </c>
@@ -24131,7 +24050,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G197">
         <v>0.12964700000000001</v>
       </c>
@@ -24139,7 +24058,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G198">
         <v>0.12970300000000001</v>
       </c>
@@ -24147,7 +24066,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G199">
         <v>0.12975999999999999</v>
       </c>
@@ -24155,7 +24074,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G200">
         <v>0.12988</v>
       </c>
@@ -24163,7 +24082,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G201">
         <v>0.129942</v>
       </c>
@@ -24171,7 +24090,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G202">
         <v>0.13000700000000001</v>
       </c>
@@ -24179,7 +24098,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G203">
         <v>0.130074</v>
       </c>
@@ -24187,7 +24106,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G204">
         <v>0.13014200000000001</v>
       </c>
@@ -24195,7 +24114,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G205">
         <v>0.13021199999999999</v>
       </c>
@@ -24214,19 +24133,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -24234,7 +24153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -24248,7 +24167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -24256,7 +24175,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -24264,7 +24183,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -24278,7 +24197,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -24292,7 +24211,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -24306,7 +24225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -24320,7 +24239,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -24334,7 +24253,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -24348,7 +24267,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -24362,7 +24281,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -24376,7 +24295,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -24390,7 +24309,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -24404,7 +24323,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -24412,7 +24331,7 @@
         <v>268.12028891725902</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -24420,7 +24339,7 @@
         <v>272.10252015600099</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -24428,7 +24347,7 @@
         <v>281.77127966561102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -24442,7 +24361,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -24456,7 +24375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -24470,7 +24389,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -24484,7 +24403,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -24498,7 +24417,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -24512,7 +24431,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -24526,7 +24445,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -24540,7 +24459,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -24554,7 +24473,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -24568,7 +24487,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -24582,7 +24501,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -24596,7 +24515,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -24610,7 +24529,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -24624,7 +24543,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -24638,7 +24557,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -24652,7 +24571,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -24666,7 +24585,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -24680,7 +24599,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>0.15219299999999999</v>
       </c>
@@ -24688,7 +24607,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>0.151975</v>
       </c>
@@ -24696,7 +24615,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>0.15132399999999999</v>
       </c>
@@ -24704,7 +24623,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>0.150894</v>
       </c>
@@ -24712,7 +24631,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>0.15068000000000001</v>
       </c>
@@ -24720,7 +24639,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>0.15046699999999999</v>
       </c>
@@ -24728,7 +24647,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>0.15004200000000001</v>
       </c>
@@ -24736,7 +24655,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>0.14983099999999999</v>
       </c>
@@ -24744,7 +24663,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>0.14962</v>
       </c>
@@ -24752,7 +24671,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>0.14941099999999999</v>
       </c>
@@ -24760,7 +24679,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>0.149201</v>
       </c>
@@ -24768,7 +24687,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>0.14899299999999999</v>
       </c>
@@ -24776,7 +24695,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>0.148786</v>
       </c>
@@ -24784,7 +24703,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>0.14857899999999999</v>
       </c>
@@ -24792,7 +24711,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>0.14816699999999999</v>
       </c>
@@ -24800,7 +24719,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>0.147759</v>
       </c>
@@ -24808,7 +24727,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>0.14755599999999999</v>
       </c>
@@ -24816,7 +24735,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>0.14735400000000001</v>
       </c>
@@ -24824,7 +24743,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>0.14715300000000001</v>
       </c>
@@ -24832,7 +24751,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>0.146952</v>
       </c>
@@ -24840,7 +24759,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>0.14675199999999999</v>
       </c>
@@ -24848,7 +24767,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>0.14655299999999999</v>
       </c>
@@ -24856,7 +24775,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>0.14635500000000001</v>
       </c>
@@ -24864,7 +24783,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>0.14615700000000001</v>
       </c>
@@ -24872,7 +24791,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>0.14537600000000001</v>
       </c>
@@ -24880,7 +24799,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>0.14499000000000001</v>
       </c>
@@ -24888,7 +24807,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>0.14479900000000001</v>
       </c>
@@ -24896,7 +24815,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>0.14441799999999999</v>
       </c>
@@ -24904,7 +24823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>0.144229</v>
       </c>
@@ -24912,7 +24831,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>0.144041</v>
       </c>
@@ -24920,7 +24839,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>0.14385400000000001</v>
       </c>
@@ -24928,7 +24847,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>0.14366799999999999</v>
       </c>
@@ -24936,7 +24855,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>0.143482</v>
       </c>
@@ -24944,7 +24863,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>0.14329800000000001</v>
       </c>
@@ -24952,7 +24871,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>0.14311399999999999</v>
       </c>
@@ -24960,7 +24879,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>0.142932</v>
       </c>
@@ -24968,7 +24887,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>0.142569</v>
       </c>
@@ -24976,7 +24895,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>0.14238899999999999</v>
       </c>
@@ -24984,7 +24903,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>0.14221</v>
       </c>
@@ -24992,7 +24911,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>0.14203199999999999</v>
       </c>
@@ -25000,7 +24919,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>0.14185500000000001</v>
       </c>
@@ -25008,7 +24927,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>0.141678</v>
       </c>
@@ -25016,7 +24935,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>0.14150299999999999</v>
       </c>
@@ -25024,7 +24943,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D79">
         <v>0.14132900000000001</v>
       </c>
@@ -25032,7 +24951,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D80">
         <v>0.141155</v>
       </c>
@@ -25040,7 +24959,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81">
         <v>0.140983</v>
       </c>
@@ -25048,7 +24967,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>0.14064099999999999</v>
       </c>
@@ -25056,7 +24975,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83">
         <v>0.14030300000000001</v>
       </c>
@@ -25064,7 +24983,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84">
         <v>0.14013600000000001</v>
       </c>
@@ -25072,7 +24991,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85">
         <v>0.13963900000000001</v>
       </c>
@@ -25080,7 +24999,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>0.13947599999999999</v>
       </c>
@@ -25088,7 +25007,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>0.13931299999999999</v>
       </c>
@@ -25096,7 +25015,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>0.139152</v>
       </c>
@@ -25104,7 +25023,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>0.13883200000000001</v>
       </c>
@@ -25112,7 +25031,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>0.138517</v>
       </c>
@@ -25120,7 +25039,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>0.13836000000000001</v>
       </c>
@@ -25128,7 +25047,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>0.13820499999999999</v>
       </c>
@@ -25136,7 +25055,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>0.13805100000000001</v>
       </c>
@@ -25144,7 +25063,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>0.13789799999999999</v>
       </c>
@@ -25152,7 +25071,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>0.137297</v>
       </c>
@@ -25160,7 +25079,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>0.13714899999999999</v>
       </c>
@@ -25168,7 +25087,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>0.13700300000000001</v>
       </c>
@@ -25176,7 +25095,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>0.13685700000000001</v>
       </c>
@@ -25184,7 +25103,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>0.136713</v>
       </c>
@@ -25192,7 +25111,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>0.13657</v>
       </c>
@@ -25200,7 +25119,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>0.13642799999999999</v>
       </c>
@@ -25208,7 +25127,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102">
         <v>0.13628699999999999</v>
       </c>
@@ -25216,7 +25135,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103">
         <v>0.13600899999999999</v>
       </c>
@@ -25224,7 +25143,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104">
         <v>0.13587099999999999</v>
       </c>
@@ -25232,7 +25151,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105">
         <v>0.13573499999999999</v>
       </c>
@@ -25240,7 +25159,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106">
         <v>0.135599</v>
       </c>
@@ -25248,7 +25167,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107">
         <v>0.135465</v>
       </c>
@@ -25256,7 +25175,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108">
         <v>0.13533300000000001</v>
       </c>
@@ -25264,7 +25183,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109">
         <v>0.13520099999999999</v>
       </c>
@@ -25272,7 +25191,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110">
         <v>0.13507</v>
       </c>
@@ -25280,7 +25199,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111">
         <v>0.134686</v>
       </c>
@@ -25288,7 +25207,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112">
         <v>0.13456000000000001</v>
       </c>
@@ -25296,7 +25215,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113">
         <v>0.134436</v>
       </c>
@@ -25304,7 +25223,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114">
         <v>0.13431199999999999</v>
       </c>
@@ -25312,7 +25231,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115">
         <v>0.13419</v>
       </c>
@@ -25320,7 +25239,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116">
         <v>0.13406899999999999</v>
       </c>
@@ -25328,7 +25247,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117">
         <v>0.13394900000000001</v>
       </c>
@@ -25336,7 +25255,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118">
         <v>0.13383100000000001</v>
       </c>
@@ -25344,7 +25263,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119">
         <v>0.133714</v>
       </c>
@@ -25352,7 +25271,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120">
         <v>0.13359799999999999</v>
       </c>
@@ -25360,7 +25279,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121">
         <v>0.13348299999999999</v>
       </c>
@@ -25368,7 +25287,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122">
         <v>0.13336999999999999</v>
       </c>
@@ -25376,7 +25295,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123">
         <v>0.13325699999999999</v>
       </c>
@@ -25384,7 +25303,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124">
         <v>0.13314599999999999</v>
       </c>
@@ -25392,7 +25311,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125">
         <v>0.13303699999999999</v>
       </c>
@@ -25400,7 +25319,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126">
         <v>0.13292799999999999</v>
       </c>
@@ -25408,7 +25327,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127">
         <v>0.13282099999999999</v>
       </c>
@@ -25416,7 +25335,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128">
         <v>0.13261100000000001</v>
       </c>
@@ -25424,7 +25343,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129">
         <v>0.13240499999999999</v>
       </c>
@@ -25432,7 +25351,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130">
         <v>0.13230500000000001</v>
       </c>
@@ -25440,7 +25359,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131">
         <v>0.13220499999999999</v>
       </c>
@@ -25448,7 +25367,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132">
         <v>0.132107</v>
       </c>
@@ -25456,7 +25375,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133">
         <v>0.13201099999999999</v>
       </c>
@@ -25464,7 +25383,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134">
         <v>0.13182099999999999</v>
       </c>
@@ -25472,7 +25391,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135">
         <v>0.13172900000000001</v>
       </c>
@@ -25480,7 +25399,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136">
         <v>0.131637</v>
       </c>
@@ -25488,7 +25407,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137">
         <v>0.131547</v>
       </c>
@@ -25496,7 +25415,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138">
         <v>0.13145799999999999</v>
       </c>
@@ -25504,7 +25423,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139">
         <v>0.13137099999999999</v>
       </c>
@@ -25512,7 +25431,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140">
         <v>0.13128500000000001</v>
       </c>
@@ -25520,7 +25439,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141">
         <v>0.13120100000000001</v>
       </c>
@@ -25528,7 +25447,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142">
         <v>0.13111700000000001</v>
       </c>
@@ -25536,7 +25455,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143">
         <v>0.13103600000000001</v>
       </c>
@@ -25544,7 +25463,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144">
         <v>0.13095499999999999</v>
       </c>
@@ -25552,7 +25471,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145">
         <v>0.13087599999999999</v>
       </c>
@@ -25560,7 +25479,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146">
         <v>0.130722</v>
       </c>
@@ -25568,7 +25487,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147">
         <v>0.13064700000000001</v>
       </c>
@@ -25576,7 +25495,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148">
         <v>0.130574</v>
       </c>
@@ -25584,7 +25503,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149">
         <v>0.13050200000000001</v>
       </c>
@@ -25592,7 +25511,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150">
         <v>0.13036200000000001</v>
       </c>
@@ -25600,7 +25519,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151">
         <v>0.13029499999999999</v>
       </c>
@@ -25608,7 +25527,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152">
         <v>0.130163</v>
       </c>
@@ -25616,7 +25535,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153">
         <v>0.13009999999999999</v>
       </c>
@@ -25624,7 +25543,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154">
         <v>0.13003799999999999</v>
       </c>
@@ -25632,7 +25551,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155">
         <v>0.12991900000000001</v>
       </c>
@@ -25640,7 +25559,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156">
         <v>0.129861</v>
       </c>
@@ -25648,7 +25567,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157">
         <v>0.129805</v>
       </c>
@@ -25656,7 +25575,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158">
         <v>0.12975100000000001</v>
       </c>
@@ -25664,7 +25583,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159">
         <v>0.12969800000000001</v>
       </c>
@@ -25672,7 +25591,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160">
         <v>0.12964600000000001</v>
       </c>
@@ -25680,7 +25599,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161">
         <v>0.12959599999999999</v>
       </c>
@@ -25688,7 +25607,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162">
         <v>0.129547</v>
       </c>
@@ -25696,7 +25615,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163">
         <v>0.1295</v>
       </c>
@@ -25704,7 +25623,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164">
         <v>0.12945499999999999</v>
       </c>
@@ -25712,7 +25631,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165">
         <v>0.129411</v>
       </c>
@@ -25720,7 +25639,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166">
         <v>0.12928799999999999</v>
       </c>
@@ -25728,7 +25647,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167">
         <v>0.12925</v>
       </c>
@@ -25736,7 +25655,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168">
         <v>0.12917899999999999</v>
       </c>
@@ -25744,7 +25663,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169">
         <v>0.12911400000000001</v>
       </c>
@@ -25752,7 +25671,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170">
         <v>0.129084</v>
       </c>
@@ -25760,7 +25679,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171">
         <v>0.129056</v>
       </c>
@@ -25768,7 +25687,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172">
         <v>0.129029</v>
       </c>
@@ -25776,7 +25695,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173">
         <v>0.12900300000000001</v>
       </c>
@@ -25784,7 +25703,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174">
         <v>0.12898000000000001</v>
       </c>
@@ -25792,7 +25711,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175">
         <v>0.12895799999999999</v>
       </c>
@@ -25800,7 +25719,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176">
         <v>0.128937</v>
       </c>
@@ -25808,7 +25727,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177">
         <v>0.128918</v>
       </c>
@@ -25816,7 +25735,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178">
         <v>0.12890099999999999</v>
       </c>
@@ -25824,7 +25743,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179">
         <v>0.128885</v>
       </c>
@@ -25832,7 +25751,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180">
         <v>0.12887100000000001</v>
       </c>
@@ -25840,7 +25759,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181">
         <v>0.12883900000000001</v>
       </c>
@@ -25848,7 +25767,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182">
         <v>0.128831</v>
       </c>
@@ -25856,7 +25775,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183">
         <v>0.128825</v>
       </c>
@@ -25864,7 +25783,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184">
         <v>0.12881899999999999</v>
       </c>
@@ -25872,7 +25791,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185">
         <v>0.12881799999999999</v>
       </c>
@@ -25880,7 +25799,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186">
         <v>0.12881799999999999</v>
       </c>
@@ -25888,7 +25807,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187">
         <v>0.12882099999999999</v>
       </c>
@@ -25896,7 +25815,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188">
         <v>0.128825</v>
       </c>
@@ -25904,7 +25823,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189">
         <v>0.128831</v>
       </c>
@@ -25912,7 +25831,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190">
         <v>0.12884799999999999</v>
       </c>
@@ -25920,7 +25839,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191">
         <v>0.128859</v>
       </c>
@@ -25928,7 +25847,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192">
         <v>0.128886</v>
       </c>
@@ -25936,7 +25855,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193">
         <v>0.12890199999999999</v>
       </c>
@@ -25944,7 +25863,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194">
         <v>0.128939</v>
       </c>
@@ -25952,7 +25871,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195">
         <v>0.12896099999999999</v>
       </c>
@@ -25960,7 +25879,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196">
         <v>0.12898399999999999</v>
       </c>
@@ -25968,7 +25887,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197">
         <v>0.12900800000000001</v>
       </c>
@@ -25976,7 +25895,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198">
         <v>0.12903500000000001</v>
       </c>
@@ -25984,7 +25903,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199">
         <v>0.12906300000000001</v>
       </c>
@@ -25992,7 +25911,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200">
         <v>0.12909300000000001</v>
       </c>
@@ -26000,7 +25919,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201">
         <v>0.12912499999999999</v>
       </c>
@@ -26008,7 +25927,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202">
         <v>0.129159</v>
       </c>
@@ -26016,7 +25935,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203">
         <v>0.129194</v>
       </c>
@@ -26024,7 +25943,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204">
         <v>0.12927</v>
       </c>
@@ -26032,7 +25951,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205">
         <v>0.129354</v>
       </c>
@@ -26040,7 +25959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206">
         <v>0.12939800000000001</v>
       </c>
@@ -26048,7 +25967,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207">
         <v>0.129444</v>
       </c>
@@ -26056,7 +25975,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208">
         <v>0.129492</v>
       </c>
@@ -26064,7 +25983,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209">
         <v>0.12954199999999999</v>
       </c>
@@ -26072,7 +25991,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210">
         <v>0.12959399999999999</v>
       </c>
@@ -26080,7 +25999,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211">
         <v>0.12964700000000001</v>
       </c>
@@ -26088,7 +26007,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212">
         <v>0.12970300000000001</v>
       </c>
@@ -26096,7 +26015,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213">
         <v>0.12975999999999999</v>
       </c>
@@ -26104,7 +26023,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214">
         <v>0.12988</v>
       </c>
@@ -26112,7 +26031,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215">
         <v>0.129942</v>
       </c>
@@ -26120,7 +26039,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216">
         <v>0.13000700000000001</v>
       </c>
@@ -26128,7 +26047,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217">
         <v>0.130074</v>
       </c>
@@ -26136,7 +26055,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218">
         <v>0.13014200000000001</v>
       </c>
@@ -26144,7 +26063,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219">
         <v>0.13021199999999999</v>
       </c>
@@ -26159,6 +26078,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -26387,38 +26323,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9DB222-0F4D-4FD5-8C4B-98B33BC10001}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26441,9 +26349,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9DB222-0F4D-4FD5-8C4B-98B33BC10001}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\Li2SO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A1657-6774-4887-B273-F790047B090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A685E10-A004-4175-9CB8-7A5AFC20C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" firstSheet="1" activeTab="4" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -4955,644 +4955,644 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Comparition Graph'!$D$4:$D$219</c:f>
+              <c:f>'Comparition Graph'!$D$4:$D$216</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
+                <c:ptCount val="213"/>
                 <c:pt idx="1">
+                  <c:v>1.0690099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.87451E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3374199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2256799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4043499999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10764600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.115548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14311399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.15495300000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>0.156919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15622800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.155999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15576999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15554200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15531400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.155087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.154861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15463499999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15440999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15418599999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15396199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15373800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15351600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15329400000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15285099999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15263099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15241199999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15219299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.151975</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15132399999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.150894</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15068000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15046699999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15004200000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14983099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14962</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14941099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.149201</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14899299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.148786</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.14857899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.14816699999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.147759</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14755599999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14735400000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.14715300000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.146952</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14675199999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14655299999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14635500000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.14615700000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14537600000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14499000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.14479900000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.14441799999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.144229</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.144041</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.14385400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.14366799999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.143482</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14329800000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>0.14311399999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10764600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.115548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4043499999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.2256799999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3374199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.87451E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0690099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.156919</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15622800000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.155999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15576999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15554200000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15531400000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.155087</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.154861</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.15463499999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.15440999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.15418599999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15396199999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.15373800000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.15351600000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15329400000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15285099999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.15263099999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.15241199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.15219299999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.151975</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.15132399999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.150894</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.15068000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.15046699999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.15004200000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.14983099999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.14962</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.14941099999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.149201</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.14899299999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.148786</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.14857899999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.14816699999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.147759</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.14755599999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.14735400000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.14715300000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.146952</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.14675199999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.14655299999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.14635500000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.14615700000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.14537600000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.14499000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.14479900000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.14441799999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.144229</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.144041</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.14385400000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.14366799999999999</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.143482</c:v>
+                  <c:v>0.142932</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.14329800000000001</c:v>
+                  <c:v>0.142569</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.14311399999999999</c:v>
+                  <c:v>0.14238899999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.142932</c:v>
+                  <c:v>0.14221</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.142569</c:v>
+                  <c:v>0.14203199999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.14238899999999999</c:v>
+                  <c:v>0.14185500000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.14221</c:v>
+                  <c:v>0.141678</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.14203199999999999</c:v>
+                  <c:v>0.14150299999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.14185500000000001</c:v>
+                  <c:v>0.14132900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.141678</c:v>
+                  <c:v>0.141155</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.14150299999999999</c:v>
+                  <c:v>0.140983</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.14132900000000001</c:v>
+                  <c:v>0.14064099999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.141155</c:v>
+                  <c:v>0.14030300000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.140983</c:v>
+                  <c:v>0.14013600000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.14064099999999999</c:v>
+                  <c:v>0.13963900000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.14030300000000001</c:v>
+                  <c:v>0.13947599999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.14013600000000001</c:v>
+                  <c:v>0.13931299999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.13963900000000001</c:v>
+                  <c:v>0.139152</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.13947599999999999</c:v>
+                  <c:v>0.13883200000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13931299999999999</c:v>
+                  <c:v>0.138517</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.139152</c:v>
+                  <c:v>0.13836000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.13883200000000001</c:v>
+                  <c:v>0.13820499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.138517</c:v>
+                  <c:v>0.13805100000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.13836000000000001</c:v>
+                  <c:v>0.13789799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13820499999999999</c:v>
+                  <c:v>0.137297</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.13805100000000001</c:v>
+                  <c:v>0.13714899999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.13789799999999999</c:v>
+                  <c:v>0.13700300000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.137297</c:v>
+                  <c:v>0.13685700000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13714899999999999</c:v>
+                  <c:v>0.136713</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.13700300000000001</c:v>
+                  <c:v>0.13657</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.13685700000000001</c:v>
+                  <c:v>0.13642799999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.136713</c:v>
+                  <c:v>0.13628699999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.13657</c:v>
+                  <c:v>0.13600899999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.13642799999999999</c:v>
+                  <c:v>0.13587099999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.13628699999999999</c:v>
+                  <c:v>0.13573499999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.13600899999999999</c:v>
+                  <c:v>0.135599</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.13587099999999999</c:v>
+                  <c:v>0.135465</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.13573499999999999</c:v>
+                  <c:v>0.13533300000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.135599</c:v>
+                  <c:v>0.13520099999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.135465</c:v>
+                  <c:v>0.13507</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.13533300000000001</c:v>
+                  <c:v>0.134686</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.13520099999999999</c:v>
+                  <c:v>0.13456000000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.13507</c:v>
+                  <c:v>0.134436</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.134686</c:v>
+                  <c:v>0.13431199999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.13456000000000001</c:v>
+                  <c:v>0.13419</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.134436</c:v>
+                  <c:v>0.13406899999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.13431199999999999</c:v>
+                  <c:v>0.13394900000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.13419</c:v>
+                  <c:v>0.13383100000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.13406899999999999</c:v>
+                  <c:v>0.133714</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.13394900000000001</c:v>
+                  <c:v>0.13359799999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.13383100000000001</c:v>
+                  <c:v>0.13348299999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.133714</c:v>
+                  <c:v>0.13336999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.13359799999999999</c:v>
+                  <c:v>0.13325699999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.13348299999999999</c:v>
+                  <c:v>0.13314599999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.13336999999999999</c:v>
+                  <c:v>0.13303699999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.13325699999999999</c:v>
+                  <c:v>0.13292799999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.13314599999999999</c:v>
+                  <c:v>0.13282099999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.13303699999999999</c:v>
+                  <c:v>0.13261100000000001</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.13292799999999999</c:v>
+                  <c:v>0.13240499999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.13282099999999999</c:v>
+                  <c:v>0.13230500000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.13261100000000001</c:v>
+                  <c:v>0.13220499999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.13240499999999999</c:v>
+                  <c:v>0.132107</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.13230500000000001</c:v>
+                  <c:v>0.13201099999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.13220499999999999</c:v>
+                  <c:v>0.13182099999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.132107</c:v>
+                  <c:v>0.13172900000000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.13201099999999999</c:v>
+                  <c:v>0.131637</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.13182099999999999</c:v>
+                  <c:v>0.131547</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.13172900000000001</c:v>
+                  <c:v>0.13145799999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.131637</c:v>
+                  <c:v>0.13137099999999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.131547</c:v>
+                  <c:v>0.13128500000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.13145799999999999</c:v>
+                  <c:v>0.13120100000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.13137099999999999</c:v>
+                  <c:v>0.13111700000000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.13128500000000001</c:v>
+                  <c:v>0.13103600000000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.13120100000000001</c:v>
+                  <c:v>0.13095499999999999</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.13111700000000001</c:v>
+                  <c:v>0.13087599999999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.13103600000000001</c:v>
+                  <c:v>0.130722</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.13095499999999999</c:v>
+                  <c:v>0.13064700000000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.13087599999999999</c:v>
+                  <c:v>0.130574</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.130722</c:v>
+                  <c:v>0.13050200000000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.13064700000000001</c:v>
+                  <c:v>0.13036200000000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.130574</c:v>
+                  <c:v>0.13029499999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.13050200000000001</c:v>
+                  <c:v>0.130163</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.13036200000000001</c:v>
+                  <c:v>0.13009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.13029499999999999</c:v>
+                  <c:v>0.13003799999999999</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.130163</c:v>
+                  <c:v>0.12991900000000001</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.13009999999999999</c:v>
+                  <c:v>0.129861</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.13003799999999999</c:v>
+                  <c:v>0.129805</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.12991900000000001</c:v>
+                  <c:v>0.12975100000000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.129861</c:v>
+                  <c:v>0.12969800000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.129805</c:v>
+                  <c:v>0.12964600000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.12975100000000001</c:v>
+                  <c:v>0.12959599999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.12969800000000001</c:v>
+                  <c:v>0.129547</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.12964600000000001</c:v>
+                  <c:v>0.1295</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.12959599999999999</c:v>
+                  <c:v>0.12945499999999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.129547</c:v>
+                  <c:v>0.129411</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.1295</c:v>
+                  <c:v>0.12928799999999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.12945499999999999</c:v>
+                  <c:v>0.12925</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.129411</c:v>
+                  <c:v>0.12917899999999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.12928799999999999</c:v>
+                  <c:v>0.12911400000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.12925</c:v>
+                  <c:v>0.129084</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.12917899999999999</c:v>
+                  <c:v>0.129056</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.12911400000000001</c:v>
+                  <c:v>0.129029</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.129084</c:v>
+                  <c:v>0.12900300000000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.129056</c:v>
+                  <c:v>0.12898000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.129029</c:v>
+                  <c:v>0.12895799999999999</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.12900300000000001</c:v>
+                  <c:v>0.128937</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.12898000000000001</c:v>
+                  <c:v>0.128918</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.12895799999999999</c:v>
+                  <c:v>0.12890099999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.128937</c:v>
+                  <c:v>0.128885</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.128918</c:v>
+                  <c:v>0.12887100000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.12890099999999999</c:v>
+                  <c:v>0.12883900000000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.128885</c:v>
+                  <c:v>0.128831</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.12887100000000001</c:v>
+                  <c:v>0.128825</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.12883900000000001</c:v>
+                  <c:v>0.12881899999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
+                  <c:v>0.12881799999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.12881799999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.12882099999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.128825</c:v>
+                </c:pt>
+                <c:pt idx="182">
                   <c:v>0.128831</c:v>
                 </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.128825</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.12881899999999999</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.12881799999999999</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.12881799999999999</c:v>
-                </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.12882099999999999</c:v>
+                  <c:v>0.12884799999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.128825</c:v>
+                  <c:v>0.128859</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.128831</c:v>
+                  <c:v>0.128886</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.12884799999999999</c:v>
+                  <c:v>0.12890199999999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.128859</c:v>
+                  <c:v>0.128939</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.128886</c:v>
+                  <c:v>0.12896099999999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.12890199999999999</c:v>
+                  <c:v>0.12898399999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.128939</c:v>
+                  <c:v>0.12900800000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.12896099999999999</c:v>
+                  <c:v>0.12903500000000001</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.12898399999999999</c:v>
+                  <c:v>0.12906300000000001</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.12900800000000001</c:v>
+                  <c:v>0.12909300000000001</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.12903500000000001</c:v>
+                  <c:v>0.12912499999999999</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.12906300000000001</c:v>
+                  <c:v>0.129159</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.12909300000000001</c:v>
+                  <c:v>0.129194</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.12912499999999999</c:v>
+                  <c:v>0.12927</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.129159</c:v>
+                  <c:v>0.129354</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.129194</c:v>
+                  <c:v>0.12939800000000001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.12927</c:v>
+                  <c:v>0.129444</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.129354</c:v>
+                  <c:v>0.129492</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.12939800000000001</c:v>
+                  <c:v>0.12954199999999999</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.129444</c:v>
+                  <c:v>0.12959399999999999</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.129492</c:v>
+                  <c:v>0.12964700000000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.12954199999999999</c:v>
+                  <c:v>0.12970300000000001</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.12959399999999999</c:v>
+                  <c:v>0.12975999999999999</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.12964700000000001</c:v>
+                  <c:v>0.12988</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.12970300000000001</c:v>
+                  <c:v>0.129942</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.12975999999999999</c:v>
+                  <c:v>0.13000700000000001</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.12988</c:v>
+                  <c:v>0.130074</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.129942</c:v>
+                  <c:v>0.13014200000000001</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.13000700000000001</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.130074</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.13014200000000001</c:v>
-                </c:pt>
-                <c:pt idx="215">
                   <c:v>0.13021199999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5600,644 +5600,644 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Comparition Graph'!$E$4:$E$219</c:f>
+              <c:f>'Comparition Graph'!$E$4:$E$216</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
+                <c:ptCount val="213"/>
                 <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="18">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="24">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>263</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>264</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>265</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>266</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>268</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>269</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>270</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>271</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>272</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>275</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>277</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>278</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>279</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>281</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>282</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>283</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>284</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>285</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>286</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>287</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>288</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>290</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>292</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>293</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>294</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>295</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>296</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>297</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>298</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>299</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>300</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>306</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>307</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>309</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>310</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>311</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>312</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>313</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>314</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>315</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>316</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>317</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>319</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>320</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>321</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>322</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>323</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>324</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>325</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>326</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>327</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>328</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>330</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>332</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>333</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>336</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>337</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>338</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>339</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>341</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>343</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>344</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>345</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>346</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>347</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>351</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>352</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>353</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>354</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>355</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>356</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>357</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>358</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>360</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>361</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>362</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>363</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>364</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>365</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>366</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>367</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>370</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>371</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>372</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>373</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>374</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>375</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>376</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>377</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>378</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>379</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>380</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>381</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>382</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>383</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>384</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>385</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>386</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>388</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>390</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>391</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>392</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>393</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>394</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>396</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>397</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>398</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>399</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>400</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>401</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>402</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>403</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>404</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>405</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>406</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>407</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>409</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>410</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>411</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>412</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>414</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>415</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>417</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>418</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>419</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>421</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>422</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>423</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>424</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>425</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>426</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>427</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>428</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>429</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>430</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>431</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>434</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>435</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>437</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>439</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>440</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>441</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>442</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>443</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>444</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>445</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>446</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>448</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>449</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>450</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>453</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>454</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>455</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>457</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>458</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>459</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>460</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>461</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>462</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>464</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>465</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>467</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>468</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>470</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>471</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>472</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>474</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>475</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>476</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>477</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>478</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>479</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>481</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>483</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>484</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>485</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>486</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>487</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>488</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>489</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>490</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>491</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>493</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>494</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="215">
                   <c:v>498</c:v>
                 </c:pt>
               </c:numCache>
@@ -12418,7 +12418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AQ7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
@@ -24131,10 +24131,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24191,10 +24191,10 @@
         <v>268.44208538099599</v>
       </c>
       <c r="D5">
-        <v>0.15495300000000001</v>
+        <v>1.0690099999999999E-2</v>
       </c>
       <c r="E5">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -24205,10 +24205,10 @@
         <v>267.91479389286201</v>
       </c>
       <c r="D6">
-        <v>0.14311399999999999</v>
+        <v>4.87451E-2</v>
       </c>
       <c r="E6">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -24219,10 +24219,10 @@
         <v>263.97715944664998</v>
       </c>
       <c r="D7">
-        <v>0.11946</v>
+        <v>5.3374199999999997E-2</v>
       </c>
       <c r="E7">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -24233,10 +24233,10 @@
         <v>260.064009513982</v>
       </c>
       <c r="D8">
-        <v>0.10764600000000001</v>
+        <v>7.2256799999999996E-2</v>
       </c>
       <c r="E8">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -24247,10 +24247,10 @@
         <v>254.423826929467</v>
       </c>
       <c r="D9">
-        <v>0.115548</v>
+        <v>8.4043499999999993E-2</v>
       </c>
       <c r="E9">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -24261,10 +24261,10 @@
         <v>252.75800556148201</v>
       </c>
       <c r="D10">
-        <v>8.4043499999999993E-2</v>
+        <v>0.10764600000000001</v>
       </c>
       <c r="E10">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -24275,10 +24275,10 @@
         <v>255.604330261109</v>
       </c>
       <c r="D11">
-        <v>7.2256799999999996E-2</v>
+        <v>0.115548</v>
       </c>
       <c r="E11">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -24289,10 +24289,10 @@
         <v>256.74023680022299</v>
       </c>
       <c r="D12">
-        <v>5.3374199999999997E-2</v>
+        <v>0.11946</v>
       </c>
       <c r="E12">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -24303,10 +24303,10 @@
         <v>260.72596582661401</v>
       </c>
       <c r="D13">
-        <v>4.87451E-2</v>
+        <v>0.14311399999999999</v>
       </c>
       <c r="E13">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -24317,10 +24317,10 @@
         <v>263.56791829167997</v>
       </c>
       <c r="D14">
-        <v>1.0690099999999999E-2</v>
+        <v>0.15495300000000001</v>
       </c>
       <c r="E14">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -24330,6 +24330,12 @@
       <c r="B15" s="1">
         <v>268.12028891725902</v>
       </c>
+      <c r="D15">
+        <v>0.156919</v>
+      </c>
+      <c r="E15">
+        <v>250</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -24338,6 +24344,12 @@
       <c r="B16" s="1">
         <v>272.10252015600099</v>
       </c>
+      <c r="D16">
+        <v>0.15622800000000001</v>
+      </c>
+      <c r="E16">
+        <v>253</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -24346,6 +24358,12 @@
       <c r="B17" s="1">
         <v>281.77127966561102</v>
       </c>
+      <c r="D17">
+        <v>0.155999</v>
+      </c>
+      <c r="E17">
+        <v>254</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -24355,10 +24373,10 @@
         <v>289.16647720316899</v>
       </c>
       <c r="D18">
-        <v>0.156919</v>
+        <v>0.15576999999999999</v>
       </c>
       <c r="E18">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -24369,10 +24387,10 @@
         <v>295.992409800801</v>
       </c>
       <c r="D19">
-        <v>0.15622800000000001</v>
+        <v>0.15554200000000001</v>
       </c>
       <c r="E19">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -24383,10 +24401,10 @@
         <v>303.38848178527002</v>
       </c>
       <c r="D20">
-        <v>0.155999</v>
+        <v>0.15531400000000001</v>
       </c>
       <c r="E20">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -24397,10 +24415,10 @@
         <v>307.37071302401199</v>
       </c>
       <c r="D21">
-        <v>0.15576999999999999</v>
+        <v>0.155087</v>
       </c>
       <c r="E21">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -24411,10 +24429,10 @@
         <v>313.63000402245501</v>
       </c>
       <c r="D22">
-        <v>0.15554200000000001</v>
+        <v>0.154861</v>
       </c>
       <c r="E22">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -24425,10 +24443,10 @@
         <v>319.89104391472398</v>
       </c>
       <c r="D23">
-        <v>0.15531400000000001</v>
+        <v>0.15463499999999999</v>
       </c>
       <c r="E23">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -24439,10 +24457,10 @@
         <v>323.87152625964001</v>
       </c>
       <c r="D24">
-        <v>0.155087</v>
+        <v>0.15440999999999999</v>
       </c>
       <c r="E24">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -24453,10 +24471,10 @@
         <v>327.28536700536898</v>
       </c>
       <c r="D25">
-        <v>0.154861</v>
+        <v>0.15418599999999999</v>
       </c>
       <c r="E25">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -24467,10 +24485,10 @@
         <v>339.23118627468102</v>
       </c>
       <c r="D26">
-        <v>0.15463499999999999</v>
+        <v>0.15396199999999999</v>
       </c>
       <c r="E26">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -24481,10 +24499,10 @@
         <v>348.90694135959001</v>
       </c>
       <c r="D27">
-        <v>0.15440999999999999</v>
+        <v>0.15373800000000001</v>
       </c>
       <c r="E27">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -24495,10 +24513,10 @@
         <v>350.04109900487902</v>
       </c>
       <c r="D28">
-        <v>0.15418599999999999</v>
+        <v>0.15351600000000001</v>
       </c>
       <c r="E28">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -24509,10 +24527,10 @@
         <v>365.41125238286702</v>
       </c>
       <c r="D29">
-        <v>0.15396199999999999</v>
+        <v>0.15329400000000001</v>
       </c>
       <c r="E29">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -24523,10 +24541,10 @@
         <v>368.82334423477101</v>
       </c>
       <c r="D30">
-        <v>0.15373800000000001</v>
+        <v>0.15285099999999999</v>
       </c>
       <c r="E30">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -24537,10 +24555,10 @@
         <v>372.806449920425</v>
       </c>
       <c r="D31">
-        <v>0.15351600000000001</v>
+        <v>0.15263099999999999</v>
       </c>
       <c r="E31">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -24551,10 +24569,10 @@
         <v>377.36056943982902</v>
       </c>
       <c r="D32">
-        <v>0.15329400000000001</v>
+        <v>0.15241199999999999</v>
       </c>
       <c r="E32">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -24565,10 +24583,10 @@
         <v>418.33452841078002</v>
       </c>
       <c r="D33">
-        <v>0.15285099999999999</v>
+        <v>0.15219299999999999</v>
       </c>
       <c r="E33">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -24579,10 +24597,10 @@
         <v>461.02590111754301</v>
       </c>
       <c r="D34">
-        <v>0.15263099999999999</v>
+        <v>0.151975</v>
       </c>
       <c r="E34">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -24593,1485 +24611,1464 @@
         <v>488.35324157470399</v>
       </c>
       <c r="D35">
-        <v>0.15241199999999999</v>
+        <v>0.15132399999999999</v>
       </c>
       <c r="E35">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36">
-        <v>0.15219299999999999</v>
+        <v>0.150894</v>
       </c>
       <c r="E36">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37">
-        <v>0.151975</v>
+        <v>0.15068000000000001</v>
       </c>
       <c r="E37">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D38">
-        <v>0.15132399999999999</v>
+        <v>0.15046699999999999</v>
       </c>
       <c r="E38">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D39">
-        <v>0.150894</v>
+        <v>0.15004200000000001</v>
       </c>
       <c r="E39">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D40">
-        <v>0.15068000000000001</v>
+        <v>0.14983099999999999</v>
       </c>
       <c r="E40">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D41">
-        <v>0.15046699999999999</v>
+        <v>0.14962</v>
       </c>
       <c r="E41">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D42">
-        <v>0.15004200000000001</v>
+        <v>0.14941099999999999</v>
       </c>
       <c r="E42">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D43">
-        <v>0.14983099999999999</v>
+        <v>0.149201</v>
       </c>
       <c r="E43">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44">
-        <v>0.14962</v>
+        <v>0.14899299999999999</v>
       </c>
       <c r="E44">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45">
-        <v>0.14941099999999999</v>
+        <v>0.148786</v>
       </c>
       <c r="E45">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46">
-        <v>0.149201</v>
+        <v>0.14857899999999999</v>
       </c>
       <c r="E46">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D47">
-        <v>0.14899299999999999</v>
+        <v>0.14816699999999999</v>
       </c>
       <c r="E47">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48">
-        <v>0.148786</v>
+        <v>0.147759</v>
       </c>
       <c r="E48">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D49">
-        <v>0.14857899999999999</v>
+        <v>0.14755599999999999</v>
       </c>
       <c r="E49">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D50">
-        <v>0.14816699999999999</v>
+        <v>0.14735400000000001</v>
       </c>
       <c r="E50">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51">
-        <v>0.147759</v>
+        <v>0.14715300000000001</v>
       </c>
       <c r="E51">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52">
-        <v>0.14755599999999999</v>
+        <v>0.146952</v>
       </c>
       <c r="E52">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53">
-        <v>0.14735400000000001</v>
+        <v>0.14675199999999999</v>
       </c>
       <c r="E53">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54">
-        <v>0.14715300000000001</v>
+        <v>0.14655299999999999</v>
       </c>
       <c r="E54">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55">
-        <v>0.146952</v>
+        <v>0.14635500000000001</v>
       </c>
       <c r="E55">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56">
-        <v>0.14675199999999999</v>
+        <v>0.14615700000000001</v>
       </c>
       <c r="E56">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57">
-        <v>0.14655299999999999</v>
+        <v>0.14537600000000001</v>
       </c>
       <c r="E57">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58">
-        <v>0.14635500000000001</v>
+        <v>0.14499000000000001</v>
       </c>
       <c r="E58">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59">
-        <v>0.14615700000000001</v>
+        <v>0.14479900000000001</v>
       </c>
       <c r="E59">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60">
-        <v>0.14537600000000001</v>
+        <v>0.14441799999999999</v>
       </c>
       <c r="E60">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61">
-        <v>0.14499000000000001</v>
+        <v>0.144229</v>
       </c>
       <c r="E61">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62">
-        <v>0.14479900000000001</v>
+        <v>0.144041</v>
       </c>
       <c r="E62">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63">
-        <v>0.14441799999999999</v>
+        <v>0.14385400000000001</v>
       </c>
       <c r="E63">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64">
-        <v>0.144229</v>
+        <v>0.14366799999999999</v>
       </c>
       <c r="E64">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65">
-        <v>0.144041</v>
+        <v>0.143482</v>
       </c>
       <c r="E65">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66">
-        <v>0.14385400000000001</v>
+        <v>0.14329800000000001</v>
       </c>
       <c r="E66">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67">
-        <v>0.14366799999999999</v>
+        <v>0.14311399999999999</v>
       </c>
       <c r="E67">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68">
-        <v>0.143482</v>
+        <v>0.142932</v>
       </c>
       <c r="E68">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69">
-        <v>0.14329800000000001</v>
+        <v>0.142569</v>
       </c>
       <c r="E69">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D70">
-        <v>0.14311399999999999</v>
+        <v>0.14238899999999999</v>
       </c>
       <c r="E70">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D71">
-        <v>0.142932</v>
+        <v>0.14221</v>
       </c>
       <c r="E71">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D72">
-        <v>0.142569</v>
+        <v>0.14203199999999999</v>
       </c>
       <c r="E72">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73">
-        <v>0.14238899999999999</v>
+        <v>0.14185500000000001</v>
       </c>
       <c r="E73">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D74">
-        <v>0.14221</v>
+        <v>0.141678</v>
       </c>
       <c r="E74">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75">
-        <v>0.14203199999999999</v>
+        <v>0.14150299999999999</v>
       </c>
       <c r="E75">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76">
-        <v>0.14185500000000001</v>
+        <v>0.14132900000000001</v>
       </c>
       <c r="E76">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D77">
-        <v>0.141678</v>
+        <v>0.141155</v>
       </c>
       <c r="E77">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D78">
-        <v>0.14150299999999999</v>
+        <v>0.140983</v>
       </c>
       <c r="E78">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D79">
-        <v>0.14132900000000001</v>
+        <v>0.14064099999999999</v>
       </c>
       <c r="E79">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D80">
-        <v>0.141155</v>
+        <v>0.14030300000000001</v>
       </c>
       <c r="E80">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81">
-        <v>0.140983</v>
+        <v>0.14013600000000001</v>
       </c>
       <c r="E81">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82">
-        <v>0.14064099999999999</v>
+        <v>0.13963900000000001</v>
       </c>
       <c r="E82">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83">
-        <v>0.14030300000000001</v>
+        <v>0.13947599999999999</v>
       </c>
       <c r="E83">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84">
-        <v>0.14013600000000001</v>
+        <v>0.13931299999999999</v>
       </c>
       <c r="E84">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85">
-        <v>0.13963900000000001</v>
+        <v>0.139152</v>
       </c>
       <c r="E85">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86">
-        <v>0.13947599999999999</v>
+        <v>0.13883200000000001</v>
       </c>
       <c r="E86">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87">
-        <v>0.13931299999999999</v>
+        <v>0.138517</v>
       </c>
       <c r="E87">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88">
-        <v>0.139152</v>
+        <v>0.13836000000000001</v>
       </c>
       <c r="E88">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89">
-        <v>0.13883200000000001</v>
+        <v>0.13820499999999999</v>
       </c>
       <c r="E89">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90">
-        <v>0.138517</v>
+        <v>0.13805100000000001</v>
       </c>
       <c r="E90">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91">
-        <v>0.13836000000000001</v>
+        <v>0.13789799999999999</v>
       </c>
       <c r="E91">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92">
-        <v>0.13820499999999999</v>
+        <v>0.137297</v>
       </c>
       <c r="E92">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D93">
-        <v>0.13805100000000001</v>
+        <v>0.13714899999999999</v>
       </c>
       <c r="E93">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94">
-        <v>0.13789799999999999</v>
+        <v>0.13700300000000001</v>
       </c>
       <c r="E94">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95">
-        <v>0.137297</v>
+        <v>0.13685700000000001</v>
       </c>
       <c r="E95">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96">
-        <v>0.13714899999999999</v>
+        <v>0.136713</v>
       </c>
       <c r="E96">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97">
-        <v>0.13700300000000001</v>
+        <v>0.13657</v>
       </c>
       <c r="E97">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98">
-        <v>0.13685700000000001</v>
+        <v>0.13642799999999999</v>
       </c>
       <c r="E98">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99">
-        <v>0.136713</v>
+        <v>0.13628699999999999</v>
       </c>
       <c r="E99">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100">
-        <v>0.13657</v>
+        <v>0.13600899999999999</v>
       </c>
       <c r="E100">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101">
-        <v>0.13642799999999999</v>
+        <v>0.13587099999999999</v>
       </c>
       <c r="E101">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102">
-        <v>0.13628699999999999</v>
+        <v>0.13573499999999999</v>
       </c>
       <c r="E102">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103">
-        <v>0.13600899999999999</v>
+        <v>0.135599</v>
       </c>
       <c r="E103">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104">
-        <v>0.13587099999999999</v>
+        <v>0.135465</v>
       </c>
       <c r="E104">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105">
-        <v>0.13573499999999999</v>
+        <v>0.13533300000000001</v>
       </c>
       <c r="E105">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106">
-        <v>0.135599</v>
+        <v>0.13520099999999999</v>
       </c>
       <c r="E106">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107">
-        <v>0.135465</v>
+        <v>0.13507</v>
       </c>
       <c r="E107">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108">
-        <v>0.13533300000000001</v>
+        <v>0.134686</v>
       </c>
       <c r="E108">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109">
-        <v>0.13520099999999999</v>
+        <v>0.13456000000000001</v>
       </c>
       <c r="E109">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110">
-        <v>0.13507</v>
+        <v>0.134436</v>
       </c>
       <c r="E110">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111">
-        <v>0.134686</v>
+        <v>0.13431199999999999</v>
       </c>
       <c r="E111">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112">
-        <v>0.13456000000000001</v>
+        <v>0.13419</v>
       </c>
       <c r="E112">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113">
-        <v>0.134436</v>
+        <v>0.13406899999999999</v>
       </c>
       <c r="E113">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114">
-        <v>0.13431199999999999</v>
+        <v>0.13394900000000001</v>
       </c>
       <c r="E114">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115">
-        <v>0.13419</v>
+        <v>0.13383100000000001</v>
       </c>
       <c r="E115">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116">
-        <v>0.13406899999999999</v>
+        <v>0.133714</v>
       </c>
       <c r="E116">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117">
-        <v>0.13394900000000001</v>
+        <v>0.13359799999999999</v>
       </c>
       <c r="E117">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118">
-        <v>0.13383100000000001</v>
+        <v>0.13348299999999999</v>
       </c>
       <c r="E118">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119">
-        <v>0.133714</v>
+        <v>0.13336999999999999</v>
       </c>
       <c r="E119">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120">
-        <v>0.13359799999999999</v>
+        <v>0.13325699999999999</v>
       </c>
       <c r="E120">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121">
-        <v>0.13348299999999999</v>
+        <v>0.13314599999999999</v>
       </c>
       <c r="E121">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122">
-        <v>0.13336999999999999</v>
+        <v>0.13303699999999999</v>
       </c>
       <c r="E122">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123">
-        <v>0.13325699999999999</v>
+        <v>0.13292799999999999</v>
       </c>
       <c r="E123">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124">
-        <v>0.13314599999999999</v>
+        <v>0.13282099999999999</v>
       </c>
       <c r="E124">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125">
-        <v>0.13303699999999999</v>
+        <v>0.13261100000000001</v>
       </c>
       <c r="E125">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126">
-        <v>0.13292799999999999</v>
+        <v>0.13240499999999999</v>
       </c>
       <c r="E126">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127">
-        <v>0.13282099999999999</v>
+        <v>0.13230500000000001</v>
       </c>
       <c r="E127">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128">
-        <v>0.13261100000000001</v>
+        <v>0.13220499999999999</v>
       </c>
       <c r="E128">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129">
-        <v>0.13240499999999999</v>
+        <v>0.132107</v>
       </c>
       <c r="E129">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130">
-        <v>0.13230500000000001</v>
+        <v>0.13201099999999999</v>
       </c>
       <c r="E130">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131">
-        <v>0.13220499999999999</v>
+        <v>0.13182099999999999</v>
       </c>
       <c r="E131">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132">
-        <v>0.132107</v>
+        <v>0.13172900000000001</v>
       </c>
       <c r="E132">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133">
-        <v>0.13201099999999999</v>
+        <v>0.131637</v>
       </c>
       <c r="E133">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134">
-        <v>0.13182099999999999</v>
+        <v>0.131547</v>
       </c>
       <c r="E134">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135">
-        <v>0.13172900000000001</v>
+        <v>0.13145799999999999</v>
       </c>
       <c r="E135">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136">
-        <v>0.131637</v>
+        <v>0.13137099999999999</v>
       </c>
       <c r="E136">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137">
-        <v>0.131547</v>
+        <v>0.13128500000000001</v>
       </c>
       <c r="E137">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138">
-        <v>0.13145799999999999</v>
+        <v>0.13120100000000001</v>
       </c>
       <c r="E138">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139">
-        <v>0.13137099999999999</v>
+        <v>0.13111700000000001</v>
       </c>
       <c r="E139">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140">
-        <v>0.13128500000000001</v>
+        <v>0.13103600000000001</v>
       </c>
       <c r="E140">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141">
-        <v>0.13120100000000001</v>
+        <v>0.13095499999999999</v>
       </c>
       <c r="E141">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142">
-        <v>0.13111700000000001</v>
+        <v>0.13087599999999999</v>
       </c>
       <c r="E142">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143">
-        <v>0.13103600000000001</v>
+        <v>0.130722</v>
       </c>
       <c r="E143">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144">
-        <v>0.13095499999999999</v>
+        <v>0.13064700000000001</v>
       </c>
       <c r="E144">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145">
-        <v>0.13087599999999999</v>
+        <v>0.130574</v>
       </c>
       <c r="E145">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146">
-        <v>0.130722</v>
+        <v>0.13050200000000001</v>
       </c>
       <c r="E146">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147">
-        <v>0.13064700000000001</v>
+        <v>0.13036200000000001</v>
       </c>
       <c r="E147">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148">
-        <v>0.130574</v>
+        <v>0.13029499999999999</v>
       </c>
       <c r="E148">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149">
-        <v>0.13050200000000001</v>
+        <v>0.130163</v>
       </c>
       <c r="E149">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150">
-        <v>0.13036200000000001</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="E150">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151">
-        <v>0.13029499999999999</v>
+        <v>0.13003799999999999</v>
       </c>
       <c r="E151">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152">
-        <v>0.130163</v>
+        <v>0.12991900000000001</v>
       </c>
       <c r="E152">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153">
-        <v>0.13009999999999999</v>
+        <v>0.129861</v>
       </c>
       <c r="E153">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154">
-        <v>0.13003799999999999</v>
+        <v>0.129805</v>
       </c>
       <c r="E154">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155">
-        <v>0.12991900000000001</v>
+        <v>0.12975100000000001</v>
       </c>
       <c r="E155">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156">
-        <v>0.129861</v>
+        <v>0.12969800000000001</v>
       </c>
       <c r="E156">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157">
-        <v>0.129805</v>
+        <v>0.12964600000000001</v>
       </c>
       <c r="E157">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158">
-        <v>0.12975100000000001</v>
+        <v>0.12959599999999999</v>
       </c>
       <c r="E158">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159">
-        <v>0.12969800000000001</v>
+        <v>0.129547</v>
       </c>
       <c r="E159">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160">
-        <v>0.12964600000000001</v>
+        <v>0.1295</v>
       </c>
       <c r="E160">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161">
-        <v>0.12959599999999999</v>
+        <v>0.12945499999999999</v>
       </c>
       <c r="E161">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162">
-        <v>0.129547</v>
+        <v>0.129411</v>
       </c>
       <c r="E162">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163">
-        <v>0.1295</v>
+        <v>0.12928799999999999</v>
       </c>
       <c r="E163">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164">
-        <v>0.12945499999999999</v>
+        <v>0.12925</v>
       </c>
       <c r="E164">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165">
-        <v>0.129411</v>
+        <v>0.12917899999999999</v>
       </c>
       <c r="E165">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166">
-        <v>0.12928799999999999</v>
+        <v>0.12911400000000001</v>
       </c>
       <c r="E166">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167">
-        <v>0.12925</v>
+        <v>0.129084</v>
       </c>
       <c r="E167">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168">
-        <v>0.12917899999999999</v>
+        <v>0.129056</v>
       </c>
       <c r="E168">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169">
-        <v>0.12911400000000001</v>
+        <v>0.129029</v>
       </c>
       <c r="E169">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170">
-        <v>0.129084</v>
+        <v>0.12900300000000001</v>
       </c>
       <c r="E170">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171">
-        <v>0.129056</v>
+        <v>0.12898000000000001</v>
       </c>
       <c r="E171">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172">
-        <v>0.129029</v>
+        <v>0.12895799999999999</v>
       </c>
       <c r="E172">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173">
-        <v>0.12900300000000001</v>
+        <v>0.128937</v>
       </c>
       <c r="E173">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174">
-        <v>0.12898000000000001</v>
+        <v>0.128918</v>
       </c>
       <c r="E174">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175">
-        <v>0.12895799999999999</v>
+        <v>0.12890099999999999</v>
       </c>
       <c r="E175">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176">
-        <v>0.128937</v>
+        <v>0.128885</v>
       </c>
       <c r="E176">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177">
-        <v>0.128918</v>
+        <v>0.12887100000000001</v>
       </c>
       <c r="E177">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178">
-        <v>0.12890099999999999</v>
+        <v>0.12883900000000001</v>
       </c>
       <c r="E178">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179">
-        <v>0.128885</v>
+        <v>0.128831</v>
       </c>
       <c r="E179">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180">
-        <v>0.12887100000000001</v>
+        <v>0.128825</v>
       </c>
       <c r="E180">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181">
-        <v>0.12883900000000001</v>
+        <v>0.12881899999999999</v>
       </c>
       <c r="E181">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182">
-        <v>0.128831</v>
+        <v>0.12881799999999999</v>
       </c>
       <c r="E182">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183">
-        <v>0.128825</v>
+        <v>0.12881799999999999</v>
       </c>
       <c r="E183">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184">
-        <v>0.12881899999999999</v>
+        <v>0.12882099999999999</v>
       </c>
       <c r="E184">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185">
-        <v>0.12881799999999999</v>
+        <v>0.128825</v>
       </c>
       <c r="E185">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186">
-        <v>0.12881799999999999</v>
+        <v>0.128831</v>
       </c>
       <c r="E186">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187">
-        <v>0.12882099999999999</v>
+        <v>0.12884799999999999</v>
       </c>
       <c r="E187">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188">
-        <v>0.128825</v>
+        <v>0.128859</v>
       </c>
       <c r="E188">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189">
-        <v>0.128831</v>
+        <v>0.128886</v>
       </c>
       <c r="E189">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190">
-        <v>0.12884799999999999</v>
+        <v>0.12890199999999999</v>
       </c>
       <c r="E190">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191">
-        <v>0.128859</v>
+        <v>0.128939</v>
       </c>
       <c r="E191">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192">
-        <v>0.128886</v>
+        <v>0.12896099999999999</v>
       </c>
       <c r="E192">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193">
-        <v>0.12890199999999999</v>
+        <v>0.12898399999999999</v>
       </c>
       <c r="E193">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194">
-        <v>0.128939</v>
+        <v>0.12900800000000001</v>
       </c>
       <c r="E194">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195">
-        <v>0.12896099999999999</v>
+        <v>0.12903500000000001</v>
       </c>
       <c r="E195">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196">
-        <v>0.12898399999999999</v>
+        <v>0.12906300000000001</v>
       </c>
       <c r="E196">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197">
-        <v>0.12900800000000001</v>
+        <v>0.12909300000000001</v>
       </c>
       <c r="E197">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198">
-        <v>0.12903500000000001</v>
+        <v>0.12912499999999999</v>
       </c>
       <c r="E198">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199">
-        <v>0.12906300000000001</v>
+        <v>0.129159</v>
       </c>
       <c r="E199">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200">
-        <v>0.12909300000000001</v>
+        <v>0.129194</v>
       </c>
       <c r="E200">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201">
-        <v>0.12912499999999999</v>
+        <v>0.12927</v>
       </c>
       <c r="E201">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202">
-        <v>0.129159</v>
+        <v>0.129354</v>
       </c>
       <c r="E202">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203">
-        <v>0.129194</v>
+        <v>0.12939800000000001</v>
       </c>
       <c r="E203">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204">
-        <v>0.12927</v>
+        <v>0.129444</v>
       </c>
       <c r="E204">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205">
-        <v>0.129354</v>
+        <v>0.129492</v>
       </c>
       <c r="E205">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206">
-        <v>0.12939800000000001</v>
+        <v>0.12954199999999999</v>
       </c>
       <c r="E206">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207">
-        <v>0.129444</v>
+        <v>0.12959399999999999</v>
       </c>
       <c r="E207">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208">
-        <v>0.129492</v>
+        <v>0.12964700000000001</v>
       </c>
       <c r="E208">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209">
-        <v>0.12954199999999999</v>
+        <v>0.12970300000000001</v>
       </c>
       <c r="E209">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210">
-        <v>0.12959399999999999</v>
+        <v>0.12975999999999999</v>
       </c>
       <c r="E210">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211">
-        <v>0.12964700000000001</v>
+        <v>0.12988</v>
       </c>
       <c r="E211">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212">
-        <v>0.12970300000000001</v>
+        <v>0.129942</v>
       </c>
       <c r="E212">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213">
-        <v>0.12975999999999999</v>
+        <v>0.13000700000000001</v>
       </c>
       <c r="E213">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214">
-        <v>0.12988</v>
+        <v>0.130074</v>
       </c>
       <c r="E214">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215">
-        <v>0.129942</v>
+        <v>0.13014200000000001</v>
       </c>
       <c r="E215">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216">
-        <v>0.13000700000000001</v>
+        <v>0.13021199999999999</v>
       </c>
       <c r="E216">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D217">
-        <v>0.130074</v>
-      </c>
-      <c r="E217">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D218">
-        <v>0.13014200000000001</v>
-      </c>
-      <c r="E218">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D219">
-        <v>0.13021199999999999</v>
-      </c>
-      <c r="E219">
         <v>498</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:E14">
+    <sortCondition ref="D5:D14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -26087,14 +26084,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -26323,6 +26312,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
   <ds:schemaRefs>
@@ -26332,23 +26329,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9DB222-0F4D-4FD5-8C4B-98B33BC10001}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26365,4 +26345,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\Li2SO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A685E10-A004-4175-9CB8-7A5AFC20C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6A685E10-A004-4175-9CB8-7A5AFC20C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B4B991-E4CD-4C35-A227-DF91151E6132}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" firstSheet="1" activeTab="4" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="696" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -637,80 +637,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Fig 8. Parity Plot for Li</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>SO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> for n=3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27708480613147596"/>
-          <c:y val="0.92152030469692914"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -11524,20 +11451,20 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -11545,7 +11472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -11557,7 +11484,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11577,7 +11504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
@@ -11597,7 +11524,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.2</v>
       </c>
@@ -11617,7 +11544,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
@@ -11637,7 +11564,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.4</v>
       </c>
@@ -11657,7 +11584,7 @@
         <v>0.74239999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.5</v>
       </c>
@@ -11677,7 +11604,7 @@
         <v>0.74760000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -11697,7 +11624,7 @@
         <v>0.74939999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -11717,7 +11644,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.8</v>
       </c>
@@ -11737,7 +11664,7 @@
         <v>0.79339999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -11757,7 +11684,7 @@
         <v>0.90010000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.5</v>
       </c>
@@ -11777,7 +11704,7 @@
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -11797,7 +11724,7 @@
         <v>0.88009999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2.5</v>
       </c>
@@ -11817,7 +11744,7 @@
         <v>0.82820000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -11837,7 +11764,7 @@
         <v>0.82540000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E18" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -11848,7 +11775,7 @@
         <v>0.77990000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E19" s="1">
         <v>1.19438</v>
       </c>
@@ -11859,7 +11786,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E20" s="1">
         <v>1.16333</v>
       </c>
@@ -11870,7 +11797,7 @@
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E21" s="1">
         <v>1.13737</v>
       </c>
@@ -11881,7 +11808,7 @@
         <v>0.77610000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E22" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -11892,7 +11819,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -11903,7 +11830,7 @@
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E24" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -11914,7 +11841,7 @@
         <v>0.85389999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
         <v>2.00387</v>
       </c>
@@ -11925,7 +11852,7 @@
         <v>0.83260000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
         <v>1.91442</v>
       </c>
@@ -11936,7 +11863,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -11947,7 +11874,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E28" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -11958,7 +11885,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E29" s="1">
         <v>1.46208</v>
       </c>
@@ -11969,7 +11896,7 @@
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E30" s="1">
         <v>1.36084</v>
       </c>
@@ -11980,7 +11907,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E31" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -11991,7 +11918,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" s="1">
         <v>1.10141</v>
       </c>
@@ -12002,7 +11929,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E33" s="1">
         <v>0.97075</v>
       </c>
@@ -12013,7 +11940,7 @@
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E34" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -12024,7 +11951,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E35" s="1">
         <v>0.8679</v>
       </c>
@@ -12035,7 +11962,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E36" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -12046,7 +11973,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E37" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -12057,7 +11984,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E38" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -12068,7 +11995,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E39" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -12079,7 +12006,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E40" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -12090,7 +12017,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E41" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -12101,7 +12028,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E42" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -12112,7 +12039,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E43" s="1">
         <v>0.21228</v>
       </c>
@@ -12123,7 +12050,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E44" s="1">
         <v>0.49833</v>
       </c>
@@ -12134,7 +12061,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E45" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -12145,7 +12072,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E46" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -12156,7 +12083,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E47" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -12167,7 +12094,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E48" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -12178,7 +12105,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E49" s="1">
         <v>2.57735</v>
       </c>
@@ -12189,7 +12116,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E50" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -12200,7 +12127,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E51" s="1">
         <v>1.94278</v>
       </c>
@@ -12211,7 +12138,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E52" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -12222,7 +12149,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E53" s="1">
         <v>1.30464</v>
       </c>
@@ -12233,7 +12160,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E54" s="1">
         <v>1.26715</v>
       </c>
@@ -12244,7 +12171,7 @@
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E55" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -12255,7 +12182,7 @@
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E56" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -12266,7 +12193,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E57" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -12277,7 +12204,7 @@
         <v>0.7843</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E58" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -12288,7 +12215,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E59" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -12299,7 +12226,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E60" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -12310,7 +12237,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E61" s="1">
         <v>2.79853</v>
       </c>
@@ -12321,7 +12248,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E62" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -12332,7 +12259,7 @@
         <v>0.9476</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E63" s="1">
         <v>2.44503</v>
       </c>
@@ -12343,7 +12270,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E64" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -12354,7 +12281,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E65" s="1">
         <v>2.12548</v>
       </c>
@@ -12365,7 +12292,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E66" s="1">
         <v>1.60666</v>
       </c>
@@ -12376,7 +12303,7 @@
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E67" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -12387,7 +12314,7 @@
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E68" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -12398,7 +12325,7 @@
         <v>0.7823</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E69" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -12418,44 +12345,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AQ10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="7"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="7"/>
-    <col min="25" max="25" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="7"/>
+    <col min="10" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="7"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="7"/>
+    <col min="25" max="25" width="8.90625" style="7"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="7" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="9" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="7"/>
-    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="7"/>
+    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4" t="s">
         <v>34</v>
       </c>
@@ -12474,7 +12401,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="6" t="s">
         <v>9</v>
@@ -12497,7 +12424,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="6" t="s">
         <v>10</v>
@@ -12520,7 +12447,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -12537,7 +12464,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -12546,7 +12473,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -12656,7 +12583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1.0960399999999999</v>
       </c>
@@ -12792,7 +12719,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1.0263</v>
       </c>
@@ -12924,7 +12851,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.94349000000000005</v>
       </c>
@@ -13068,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.94342000000000004</v>
       </c>
@@ -13214,7 +13141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.43031000000000003</v>
       </c>
@@ -13360,7 +13287,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.42624000000000001</v>
       </c>
@@ -13506,7 +13433,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15548000000000001</v>
       </c>
@@ -13652,7 +13579,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1148</v>
       </c>
@@ -13798,7 +13725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2.7969200000000001</v>
       </c>
@@ -13952,7 +13879,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2.5790999999999999</v>
       </c>
@@ -14106,7 +14033,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2.5750299999999999</v>
       </c>
@@ -14260,7 +14187,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.9464699999999999</v>
       </c>
@@ -14414,7 +14341,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.9030499999999999</v>
       </c>
@@ -14568,7 +14495,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -14722,7 +14649,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.19438</v>
       </c>
@@ -14870,7 +14797,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1.16333</v>
       </c>
@@ -15018,7 +14945,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1.13737</v>
       </c>
@@ -15166,7 +15093,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -15314,7 +15241,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -15462,7 +15389,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -15610,7 +15537,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2.00387</v>
       </c>
@@ -15758,7 +15685,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1.91442</v>
       </c>
@@ -15906,7 +15833,7 @@
         <v>1.9000000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -16054,7 +15981,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -16194,7 +16121,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1.46208</v>
       </c>
@@ -16334,7 +16261,7 @@
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1.36084</v>
       </c>
@@ -16474,7 +16401,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -16614,7 +16541,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1.10141</v>
       </c>
@@ -16754,7 +16681,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.97075</v>
       </c>
@@ -16894,7 +16821,7 @@
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -17034,7 +16961,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>0.8679</v>
       </c>
@@ -17174,7 +17101,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -17314,7 +17241,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -17446,7 +17373,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -17578,7 +17505,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -17710,7 +17637,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -17842,7 +17769,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -17974,7 +17901,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -18106,7 +18033,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.21228</v>
       </c>
@@ -18238,7 +18165,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.49833</v>
       </c>
@@ -18370,7 +18297,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -18502,7 +18429,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -18634,7 +18561,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -18766,7 +18693,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -18898,7 +18825,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2.57735</v>
       </c>
@@ -19038,7 +18965,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -19178,7 +19105,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1.94278</v>
       </c>
@@ -19318,7 +19245,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -19458,7 +19385,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1.30464</v>
       </c>
@@ -19598,7 +19525,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1.26715</v>
       </c>
@@ -19738,7 +19665,7 @@
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -19878,7 +19805,7 @@
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -20018,7 +19945,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -20158,7 +20085,7 @@
         <v>0.7843</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -20290,7 +20217,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -20422,7 +20349,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -20562,7 +20489,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2.79853</v>
       </c>
@@ -20702,7 +20629,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -20842,7 +20769,7 @@
         <v>0.9476</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2.44503</v>
       </c>
@@ -20982,7 +20909,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -21122,7 +21049,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2.12548</v>
       </c>
@@ -21262,7 +21189,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1.60666</v>
       </c>
@@ -21402,7 +21329,7 @@
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -21542,7 +21469,7 @@
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -21682,7 +21609,7 @@
         <v>0.7823</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -21814,55 +21741,55 @@
         <v>0.77590000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
@@ -21880,13 +21807,13 @@
       <selection sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -21894,7 +21821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -21902,7 +21829,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -21910,7 +21837,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -21918,7 +21845,7 @@
         <v>268.44208538099599</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -21926,7 +21853,7 @@
         <v>267.91479389286201</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -21934,7 +21861,7 @@
         <v>263.97715944664998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -21942,7 +21869,7 @@
         <v>260.064009513982</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -21950,7 +21877,7 @@
         <v>254.423826929467</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -21958,7 +21885,7 @@
         <v>252.75800556148201</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -21966,7 +21893,7 @@
         <v>255.604330261109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -21974,7 +21901,7 @@
         <v>256.74023680022299</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -21982,7 +21909,7 @@
         <v>260.72596582661401</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -21990,7 +21917,7 @@
         <v>263.56791829167997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -21998,7 +21925,7 @@
         <v>268.12028891725902</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -22006,7 +21933,7 @@
         <v>272.10252015600099</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -22014,7 +21941,7 @@
         <v>281.77127966561102</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -22022,7 +21949,7 @@
         <v>289.16647720316899</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -22030,7 +21957,7 @@
         <v>295.992409800801</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -22038,7 +21965,7 @@
         <v>303.38848178527002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -22046,7 +21973,7 @@
         <v>307.37071302401199</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -22054,7 +21981,7 @@
         <v>313.63000402245501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -22062,7 +21989,7 @@
         <v>319.89104391472398</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -22070,7 +21997,7 @@
         <v>323.87152625964001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -22078,7 +22005,7 @@
         <v>327.28536700536898</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -22086,7 +22013,7 @@
         <v>339.23118627468102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -22094,7 +22021,7 @@
         <v>348.90694135959001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -22102,7 +22029,7 @@
         <v>350.04109900487902</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -22110,7 +22037,7 @@
         <v>365.41125238286702</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -22118,7 +22045,7 @@
         <v>368.82334423477101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -22126,7 +22053,7 @@
         <v>372.806449920425</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -22134,7 +22061,7 @@
         <v>377.36056943982902</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -22142,7 +22069,7 @@
         <v>418.33452841078002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -22150,7 +22077,7 @@
         <v>461.02590111754301</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -22172,17 +22099,17 @@
       <selection activeCell="G58" sqref="G58:H205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -22190,7 +22117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -22204,7 +22131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -22224,7 +22151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -22244,7 +22171,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -22264,7 +22191,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -22284,7 +22211,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -22304,7 +22231,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -22324,7 +22251,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -22344,7 +22271,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -22364,7 +22291,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -22384,7 +22311,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -22404,7 +22331,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -22424,7 +22351,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -22444,7 +22371,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -22464,7 +22391,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -22484,7 +22411,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -22504,7 +22431,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -22524,7 +22451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -22538,7 +22465,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -22552,7 +22479,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -22566,7 +22493,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -22580,7 +22507,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -22594,7 +22521,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -22608,7 +22535,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -22622,7 +22549,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -22636,7 +22563,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -22650,7 +22577,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -22664,7 +22591,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -22678,7 +22605,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -22692,7 +22619,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -22706,7 +22633,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -22720,7 +22647,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -22734,7 +22661,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -22748,7 +22675,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -22762,7 +22689,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>0.14816699999999999</v>
       </c>
@@ -22770,7 +22697,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>0.147759</v>
       </c>
@@ -22778,7 +22705,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G38">
         <v>0.14755599999999999</v>
       </c>
@@ -22786,7 +22713,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>0.14735400000000001</v>
       </c>
@@ -22794,7 +22721,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>0.14715300000000001</v>
       </c>
@@ -22802,7 +22729,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G41">
         <v>0.146952</v>
       </c>
@@ -22810,7 +22737,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>0.14675199999999999</v>
       </c>
@@ -22818,7 +22745,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>0.14655299999999999</v>
       </c>
@@ -22826,7 +22753,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G44">
         <v>0.14635500000000001</v>
       </c>
@@ -22834,7 +22761,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G45">
         <v>0.14615700000000001</v>
       </c>
@@ -22842,7 +22769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G46">
         <v>0.14537600000000001</v>
       </c>
@@ -22850,7 +22777,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G47">
         <v>0.14499000000000001</v>
       </c>
@@ -22858,7 +22785,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G48">
         <v>0.14479900000000001</v>
       </c>
@@ -22866,7 +22793,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G49">
         <v>0.14441799999999999</v>
       </c>
@@ -22874,7 +22801,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G50">
         <v>0.144229</v>
       </c>
@@ -22882,7 +22809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G51">
         <v>0.144041</v>
       </c>
@@ -22890,7 +22817,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G52">
         <v>0.14385400000000001</v>
       </c>
@@ -22898,7 +22825,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G53">
         <v>0.14366799999999999</v>
       </c>
@@ -22906,7 +22833,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G54">
         <v>0.143482</v>
       </c>
@@ -22914,7 +22841,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G55">
         <v>0.14329800000000001</v>
       </c>
@@ -22922,7 +22849,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G56">
         <v>0.14311399999999999</v>
       </c>
@@ -22930,7 +22857,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G57">
         <v>0.142932</v>
       </c>
@@ -22938,7 +22865,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G58">
         <v>0.142569</v>
       </c>
@@ -22946,7 +22873,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G59">
         <v>0.14238899999999999</v>
       </c>
@@ -22954,7 +22881,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G60">
         <v>0.14221</v>
       </c>
@@ -22962,7 +22889,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G61">
         <v>0.14203199999999999</v>
       </c>
@@ -22970,7 +22897,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G62">
         <v>0.14185500000000001</v>
       </c>
@@ -22978,7 +22905,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G63">
         <v>0.141678</v>
       </c>
@@ -22986,7 +22913,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G64">
         <v>0.14150299999999999</v>
       </c>
@@ -22994,7 +22921,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G65">
         <v>0.14132900000000001</v>
       </c>
@@ -23002,7 +22929,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G66">
         <v>0.141155</v>
       </c>
@@ -23010,7 +22937,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G67">
         <v>0.140983</v>
       </c>
@@ -23018,7 +22945,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G68">
         <v>0.14064099999999999</v>
       </c>
@@ -23026,7 +22953,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G69">
         <v>0.14030300000000001</v>
       </c>
@@ -23034,7 +22961,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G70">
         <v>0.14013600000000001</v>
       </c>
@@ -23042,7 +22969,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G71">
         <v>0.13963900000000001</v>
       </c>
@@ -23050,7 +22977,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G72">
         <v>0.13947599999999999</v>
       </c>
@@ -23058,7 +22985,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G73">
         <v>0.13931299999999999</v>
       </c>
@@ -23066,7 +22993,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G74">
         <v>0.139152</v>
       </c>
@@ -23074,7 +23001,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G75">
         <v>0.13883200000000001</v>
       </c>
@@ -23082,7 +23009,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G76">
         <v>0.138517</v>
       </c>
@@ -23090,7 +23017,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G77">
         <v>0.13836000000000001</v>
       </c>
@@ -23098,7 +23025,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G78">
         <v>0.13820499999999999</v>
       </c>
@@ -23106,7 +23033,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G79">
         <v>0.13805100000000001</v>
       </c>
@@ -23114,7 +23041,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G80">
         <v>0.13789799999999999</v>
       </c>
@@ -23122,7 +23049,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G81">
         <v>0.137297</v>
       </c>
@@ -23130,7 +23057,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G82">
         <v>0.13714899999999999</v>
       </c>
@@ -23138,7 +23065,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G83">
         <v>0.13700300000000001</v>
       </c>
@@ -23146,7 +23073,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G84">
         <v>0.13685700000000001</v>
       </c>
@@ -23154,7 +23081,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G85">
         <v>0.136713</v>
       </c>
@@ -23162,7 +23089,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G86">
         <v>0.13657</v>
       </c>
@@ -23170,7 +23097,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G87">
         <v>0.13642799999999999</v>
       </c>
@@ -23178,7 +23105,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G88">
         <v>0.13628699999999999</v>
       </c>
@@ -23186,7 +23113,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G89">
         <v>0.13600899999999999</v>
       </c>
@@ -23194,7 +23121,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G90">
         <v>0.13587099999999999</v>
       </c>
@@ -23202,7 +23129,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G91">
         <v>0.13573499999999999</v>
       </c>
@@ -23210,7 +23137,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G92">
         <v>0.135599</v>
       </c>
@@ -23218,7 +23145,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G93">
         <v>0.135465</v>
       </c>
@@ -23226,7 +23153,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G94">
         <v>0.13533300000000001</v>
       </c>
@@ -23234,7 +23161,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G95">
         <v>0.13520099999999999</v>
       </c>
@@ -23242,7 +23169,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G96">
         <v>0.13507</v>
       </c>
@@ -23250,7 +23177,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G97">
         <v>0.134686</v>
       </c>
@@ -23258,7 +23185,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G98">
         <v>0.13456000000000001</v>
       </c>
@@ -23266,7 +23193,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G99">
         <v>0.134436</v>
       </c>
@@ -23274,7 +23201,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G100">
         <v>0.13431199999999999</v>
       </c>
@@ -23282,7 +23209,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G101">
         <v>0.13419</v>
       </c>
@@ -23290,7 +23217,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G102">
         <v>0.13406899999999999</v>
       </c>
@@ -23298,7 +23225,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G103">
         <v>0.13394900000000001</v>
       </c>
@@ -23306,7 +23233,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G104">
         <v>0.13383100000000001</v>
       </c>
@@ -23314,7 +23241,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G105">
         <v>0.133714</v>
       </c>
@@ -23322,7 +23249,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G106">
         <v>0.13359799999999999</v>
       </c>
@@ -23330,7 +23257,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G107">
         <v>0.13348299999999999</v>
       </c>
@@ -23338,7 +23265,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G108">
         <v>0.13336999999999999</v>
       </c>
@@ -23346,7 +23273,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G109">
         <v>0.13325699999999999</v>
       </c>
@@ -23354,7 +23281,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G110">
         <v>0.13314599999999999</v>
       </c>
@@ -23362,7 +23289,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G111">
         <v>0.13303699999999999</v>
       </c>
@@ -23370,7 +23297,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G112">
         <v>0.13292799999999999</v>
       </c>
@@ -23378,7 +23305,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G113">
         <v>0.13282099999999999</v>
       </c>
@@ -23386,7 +23313,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G114">
         <v>0.13261100000000001</v>
       </c>
@@ -23394,7 +23321,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G115">
         <v>0.13240499999999999</v>
       </c>
@@ -23402,7 +23329,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G116">
         <v>0.13230500000000001</v>
       </c>
@@ -23410,7 +23337,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G117">
         <v>0.13220499999999999</v>
       </c>
@@ -23418,7 +23345,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G118">
         <v>0.132107</v>
       </c>
@@ -23426,7 +23353,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G119">
         <v>0.13201099999999999</v>
       </c>
@@ -23434,7 +23361,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G120">
         <v>0.13182099999999999</v>
       </c>
@@ -23442,7 +23369,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G121">
         <v>0.13172900000000001</v>
       </c>
@@ -23450,7 +23377,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G122">
         <v>0.131637</v>
       </c>
@@ -23458,7 +23385,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G123">
         <v>0.131547</v>
       </c>
@@ -23466,7 +23393,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G124">
         <v>0.13145799999999999</v>
       </c>
@@ -23474,7 +23401,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G125">
         <v>0.13137099999999999</v>
       </c>
@@ -23482,7 +23409,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G126">
         <v>0.13128500000000001</v>
       </c>
@@ -23490,7 +23417,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G127">
         <v>0.13120100000000001</v>
       </c>
@@ -23498,7 +23425,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G128">
         <v>0.13111700000000001</v>
       </c>
@@ -23506,7 +23433,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G129">
         <v>0.13103600000000001</v>
       </c>
@@ -23514,7 +23441,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G130">
         <v>0.13095499999999999</v>
       </c>
@@ -23522,7 +23449,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G131">
         <v>0.13087599999999999</v>
       </c>
@@ -23530,7 +23457,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G132">
         <v>0.130722</v>
       </c>
@@ -23538,7 +23465,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G133">
         <v>0.13064700000000001</v>
       </c>
@@ -23546,7 +23473,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G134">
         <v>0.130574</v>
       </c>
@@ -23554,7 +23481,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G135">
         <v>0.13050200000000001</v>
       </c>
@@ -23562,7 +23489,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G136">
         <v>0.13036200000000001</v>
       </c>
@@ -23570,7 +23497,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G137">
         <v>0.13029499999999999</v>
       </c>
@@ -23578,7 +23505,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G138">
         <v>0.130163</v>
       </c>
@@ -23586,7 +23513,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G139">
         <v>0.13009999999999999</v>
       </c>
@@ -23594,7 +23521,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G140">
         <v>0.13003799999999999</v>
       </c>
@@ -23602,7 +23529,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G141">
         <v>0.12991900000000001</v>
       </c>
@@ -23610,7 +23537,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G142">
         <v>0.129861</v>
       </c>
@@ -23618,7 +23545,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G143">
         <v>0.129805</v>
       </c>
@@ -23626,7 +23553,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G144">
         <v>0.12975100000000001</v>
       </c>
@@ -23634,7 +23561,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G145">
         <v>0.12969800000000001</v>
       </c>
@@ -23642,7 +23569,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G146">
         <v>0.12964600000000001</v>
       </c>
@@ -23650,7 +23577,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G147">
         <v>0.12959599999999999</v>
       </c>
@@ -23658,7 +23585,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G148">
         <v>0.129547</v>
       </c>
@@ -23666,7 +23593,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G149">
         <v>0.1295</v>
       </c>
@@ -23674,7 +23601,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G150">
         <v>0.12945499999999999</v>
       </c>
@@ -23682,7 +23609,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G151">
         <v>0.129411</v>
       </c>
@@ -23690,7 +23617,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G152">
         <v>0.12928799999999999</v>
       </c>
@@ -23698,7 +23625,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G153">
         <v>0.12925</v>
       </c>
@@ -23706,7 +23633,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G154">
         <v>0.12917899999999999</v>
       </c>
@@ -23714,7 +23641,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G155">
         <v>0.12911400000000001</v>
       </c>
@@ -23722,7 +23649,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G156">
         <v>0.129084</v>
       </c>
@@ -23730,7 +23657,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G157">
         <v>0.129056</v>
       </c>
@@ -23738,7 +23665,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G158">
         <v>0.129029</v>
       </c>
@@ -23746,7 +23673,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G159">
         <v>0.12900300000000001</v>
       </c>
@@ -23754,7 +23681,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G160">
         <v>0.12898000000000001</v>
       </c>
@@ -23762,7 +23689,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G161">
         <v>0.12895799999999999</v>
       </c>
@@ -23770,7 +23697,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G162">
         <v>0.128937</v>
       </c>
@@ -23778,7 +23705,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G163">
         <v>0.128918</v>
       </c>
@@ -23786,7 +23713,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G164">
         <v>0.12890099999999999</v>
       </c>
@@ -23794,7 +23721,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G165">
         <v>0.128885</v>
       </c>
@@ -23802,7 +23729,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G166">
         <v>0.12887100000000001</v>
       </c>
@@ -23810,7 +23737,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G167">
         <v>0.12883900000000001</v>
       </c>
@@ -23818,7 +23745,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G168">
         <v>0.128831</v>
       </c>
@@ -23826,7 +23753,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G169">
         <v>0.128825</v>
       </c>
@@ -23834,7 +23761,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G170">
         <v>0.12881899999999999</v>
       </c>
@@ -23842,7 +23769,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G171">
         <v>0.12881799999999999</v>
       </c>
@@ -23850,7 +23777,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G172">
         <v>0.12881799999999999</v>
       </c>
@@ -23858,7 +23785,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G173">
         <v>0.12882099999999999</v>
       </c>
@@ -23866,7 +23793,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G174">
         <v>0.128825</v>
       </c>
@@ -23874,7 +23801,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G175">
         <v>0.128831</v>
       </c>
@@ -23882,7 +23809,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G176">
         <v>0.12884799999999999</v>
       </c>
@@ -23890,7 +23817,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G177">
         <v>0.128859</v>
       </c>
@@ -23898,7 +23825,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G178">
         <v>0.128886</v>
       </c>
@@ -23906,7 +23833,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G179">
         <v>0.12890199999999999</v>
       </c>
@@ -23914,7 +23841,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G180">
         <v>0.128939</v>
       </c>
@@ -23922,7 +23849,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G181">
         <v>0.12896099999999999</v>
       </c>
@@ -23930,7 +23857,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G182">
         <v>0.12898399999999999</v>
       </c>
@@ -23938,7 +23865,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G183">
         <v>0.12900800000000001</v>
       </c>
@@ -23946,7 +23873,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G184">
         <v>0.12903500000000001</v>
       </c>
@@ -23954,7 +23881,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G185">
         <v>0.12906300000000001</v>
       </c>
@@ -23962,7 +23889,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G186">
         <v>0.12909300000000001</v>
       </c>
@@ -23970,7 +23897,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G187">
         <v>0.12912499999999999</v>
       </c>
@@ -23978,7 +23905,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G188">
         <v>0.129159</v>
       </c>
@@ -23986,7 +23913,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G189">
         <v>0.129194</v>
       </c>
@@ -23994,7 +23921,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G190">
         <v>0.12927</v>
       </c>
@@ -24002,7 +23929,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G191">
         <v>0.129354</v>
       </c>
@@ -24010,7 +23937,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G192">
         <v>0.12939800000000001</v>
       </c>
@@ -24018,7 +23945,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G193">
         <v>0.129444</v>
       </c>
@@ -24026,7 +23953,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G194">
         <v>0.129492</v>
       </c>
@@ -24034,7 +23961,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G195">
         <v>0.12954199999999999</v>
       </c>
@@ -24042,7 +23969,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G196">
         <v>0.12959399999999999</v>
       </c>
@@ -24050,7 +23977,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G197">
         <v>0.12964700000000001</v>
       </c>
@@ -24058,7 +23985,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G198">
         <v>0.12970300000000001</v>
       </c>
@@ -24066,7 +23993,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G199">
         <v>0.12975999999999999</v>
       </c>
@@ -24074,7 +24001,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G200">
         <v>0.12988</v>
       </c>
@@ -24082,7 +24009,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G201">
         <v>0.129942</v>
       </c>
@@ -24090,7 +24017,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G202">
         <v>0.13000700000000001</v>
       </c>
@@ -24098,7 +24025,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G203">
         <v>0.130074</v>
       </c>
@@ -24106,7 +24033,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G204">
         <v>0.13014200000000001</v>
       </c>
@@ -24114,7 +24041,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G205">
         <v>0.13021199999999999</v>
       </c>
@@ -24133,19 +24060,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
   <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -24153,7 +24080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -24167,7 +24094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -24175,7 +24102,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -24183,7 +24110,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -24197,7 +24124,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -24211,7 +24138,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -24225,7 +24152,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -24239,7 +24166,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -24253,7 +24180,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -24267,7 +24194,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -24281,7 +24208,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -24295,7 +24222,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -24309,7 +24236,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -24323,7 +24250,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -24337,7 +24264,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -24351,7 +24278,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -24365,7 +24292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -24379,7 +24306,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -24393,7 +24320,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -24407,7 +24334,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -24421,7 +24348,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -24435,7 +24362,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -24449,7 +24376,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -24463,7 +24390,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -24477,7 +24404,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -24491,7 +24418,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -24505,7 +24432,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -24519,7 +24446,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -24533,7 +24460,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -24547,7 +24474,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -24561,7 +24488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -24575,7 +24502,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -24589,7 +24516,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -24603,7 +24530,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -24617,7 +24544,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36">
         <v>0.150894</v>
       </c>
@@ -24625,7 +24552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37">
         <v>0.15068000000000001</v>
       </c>
@@ -24633,7 +24560,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D38">
         <v>0.15046699999999999</v>
       </c>
@@ -24641,7 +24568,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D39">
         <v>0.15004200000000001</v>
       </c>
@@ -24649,7 +24576,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>0.14983099999999999</v>
       </c>
@@ -24657,7 +24584,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D41">
         <v>0.14962</v>
       </c>
@@ -24665,7 +24592,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D42">
         <v>0.14941099999999999</v>
       </c>
@@ -24673,7 +24600,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D43">
         <v>0.149201</v>
       </c>
@@ -24681,7 +24608,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D44">
         <v>0.14899299999999999</v>
       </c>
@@ -24689,7 +24616,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D45">
         <v>0.148786</v>
       </c>
@@ -24697,7 +24624,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D46">
         <v>0.14857899999999999</v>
       </c>
@@ -24705,7 +24632,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D47">
         <v>0.14816699999999999</v>
       </c>
@@ -24713,7 +24640,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D48">
         <v>0.147759</v>
       </c>
@@ -24721,7 +24648,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D49">
         <v>0.14755599999999999</v>
       </c>
@@ -24729,7 +24656,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D50">
         <v>0.14735400000000001</v>
       </c>
@@ -24737,7 +24664,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D51">
         <v>0.14715300000000001</v>
       </c>
@@ -24745,7 +24672,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D52">
         <v>0.146952</v>
       </c>
@@ -24753,7 +24680,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D53">
         <v>0.14675199999999999</v>
       </c>
@@ -24761,7 +24688,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D54">
         <v>0.14655299999999999</v>
       </c>
@@ -24769,7 +24696,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D55">
         <v>0.14635500000000001</v>
       </c>
@@ -24777,7 +24704,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D56">
         <v>0.14615700000000001</v>
       </c>
@@ -24785,7 +24712,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D57">
         <v>0.14537600000000001</v>
       </c>
@@ -24793,7 +24720,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D58">
         <v>0.14499000000000001</v>
       </c>
@@ -24801,7 +24728,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D59">
         <v>0.14479900000000001</v>
       </c>
@@ -24809,7 +24736,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D60">
         <v>0.14441799999999999</v>
       </c>
@@ -24817,7 +24744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D61">
         <v>0.144229</v>
       </c>
@@ -24825,7 +24752,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D62">
         <v>0.144041</v>
       </c>
@@ -24833,7 +24760,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D63">
         <v>0.14385400000000001</v>
       </c>
@@ -24841,7 +24768,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D64">
         <v>0.14366799999999999</v>
       </c>
@@ -24849,7 +24776,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65">
         <v>0.143482</v>
       </c>
@@ -24857,7 +24784,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66">
         <v>0.14329800000000001</v>
       </c>
@@ -24865,7 +24792,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D67">
         <v>0.14311399999999999</v>
       </c>
@@ -24873,7 +24800,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D68">
         <v>0.142932</v>
       </c>
@@ -24881,7 +24808,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D69">
         <v>0.142569</v>
       </c>
@@ -24889,7 +24816,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D70">
         <v>0.14238899999999999</v>
       </c>
@@ -24897,7 +24824,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D71">
         <v>0.14221</v>
       </c>
@@ -24905,7 +24832,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>0.14203199999999999</v>
       </c>
@@ -24913,7 +24840,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>0.14185500000000001</v>
       </c>
@@ -24921,7 +24848,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>0.141678</v>
       </c>
@@ -24929,7 +24856,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>0.14150299999999999</v>
       </c>
@@ -24937,7 +24864,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>0.14132900000000001</v>
       </c>
@@ -24945,7 +24872,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>0.141155</v>
       </c>
@@ -24953,7 +24880,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>0.140983</v>
       </c>
@@ -24961,7 +24888,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>0.14064099999999999</v>
       </c>
@@ -24969,7 +24896,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>0.14030300000000001</v>
       </c>
@@ -24977,7 +24904,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>0.14013600000000001</v>
       </c>
@@ -24985,7 +24912,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>0.13963900000000001</v>
       </c>
@@ -24993,7 +24920,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>0.13947599999999999</v>
       </c>
@@ -25001,7 +24928,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>0.13931299999999999</v>
       </c>
@@ -25009,7 +24936,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>0.139152</v>
       </c>
@@ -25017,7 +24944,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>0.13883200000000001</v>
       </c>
@@ -25025,7 +24952,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>0.138517</v>
       </c>
@@ -25033,7 +24960,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>0.13836000000000001</v>
       </c>
@@ -25041,7 +24968,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>0.13820499999999999</v>
       </c>
@@ -25049,7 +24976,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>0.13805100000000001</v>
       </c>
@@ -25057,7 +24984,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.13789799999999999</v>
       </c>
@@ -25065,7 +24992,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.137297</v>
       </c>
@@ -25073,7 +25000,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.13714899999999999</v>
       </c>
@@ -25081,7 +25008,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.13700300000000001</v>
       </c>
@@ -25089,7 +25016,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.13685700000000001</v>
       </c>
@@ -25097,7 +25024,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.136713</v>
       </c>
@@ -25105,7 +25032,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.13657</v>
       </c>
@@ -25113,7 +25040,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.13642799999999999</v>
       </c>
@@ -25121,7 +25048,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.13628699999999999</v>
       </c>
@@ -25129,7 +25056,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.13600899999999999</v>
       </c>
@@ -25137,7 +25064,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.13587099999999999</v>
       </c>
@@ -25145,7 +25072,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.13573499999999999</v>
       </c>
@@ -25153,7 +25080,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.135599</v>
       </c>
@@ -25161,7 +25088,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.135465</v>
       </c>
@@ -25169,7 +25096,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.13533300000000001</v>
       </c>
@@ -25177,7 +25104,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.13520099999999999</v>
       </c>
@@ -25185,7 +25112,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.13507</v>
       </c>
@@ -25193,7 +25120,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.134686</v>
       </c>
@@ -25201,7 +25128,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.13456000000000001</v>
       </c>
@@ -25209,7 +25136,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.134436</v>
       </c>
@@ -25217,7 +25144,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.13431199999999999</v>
       </c>
@@ -25225,7 +25152,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.13419</v>
       </c>
@@ -25233,7 +25160,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.13406899999999999</v>
       </c>
@@ -25241,7 +25168,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.13394900000000001</v>
       </c>
@@ -25249,7 +25176,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.13383100000000001</v>
       </c>
@@ -25257,7 +25184,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.133714</v>
       </c>
@@ -25265,7 +25192,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.13359799999999999</v>
       </c>
@@ -25273,7 +25200,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.13348299999999999</v>
       </c>
@@ -25281,7 +25208,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.13336999999999999</v>
       </c>
@@ -25289,7 +25216,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.13325699999999999</v>
       </c>
@@ -25297,7 +25224,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.13314599999999999</v>
       </c>
@@ -25305,7 +25232,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.13303699999999999</v>
       </c>
@@ -25313,7 +25240,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.13292799999999999</v>
       </c>
@@ -25321,7 +25248,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.13282099999999999</v>
       </c>
@@ -25329,7 +25256,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.13261100000000001</v>
       </c>
@@ -25337,7 +25264,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.13240499999999999</v>
       </c>
@@ -25345,7 +25272,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.13230500000000001</v>
       </c>
@@ -25353,7 +25280,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.13220499999999999</v>
       </c>
@@ -25361,7 +25288,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.132107</v>
       </c>
@@ -25369,7 +25296,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.13201099999999999</v>
       </c>
@@ -25377,7 +25304,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.13182099999999999</v>
       </c>
@@ -25385,7 +25312,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.13172900000000001</v>
       </c>
@@ -25393,7 +25320,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.131637</v>
       </c>
@@ -25401,7 +25328,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.131547</v>
       </c>
@@ -25409,7 +25336,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.13145799999999999</v>
       </c>
@@ -25417,7 +25344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.13137099999999999</v>
       </c>
@@ -25425,7 +25352,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.13128500000000001</v>
       </c>
@@ -25433,7 +25360,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.13120100000000001</v>
       </c>
@@ -25441,7 +25368,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.13111700000000001</v>
       </c>
@@ -25449,7 +25376,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.13103600000000001</v>
       </c>
@@ -25457,7 +25384,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.13095499999999999</v>
       </c>
@@ -25465,7 +25392,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.13087599999999999</v>
       </c>
@@ -25473,7 +25400,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.130722</v>
       </c>
@@ -25481,7 +25408,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.13064700000000001</v>
       </c>
@@ -25489,7 +25416,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.130574</v>
       </c>
@@ -25497,7 +25424,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.13050200000000001</v>
       </c>
@@ -25505,7 +25432,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.13036200000000001</v>
       </c>
@@ -25513,7 +25440,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.13029499999999999</v>
       </c>
@@ -25521,7 +25448,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.130163</v>
       </c>
@@ -25529,7 +25456,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.13009999999999999</v>
       </c>
@@ -25537,7 +25464,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.13003799999999999</v>
       </c>
@@ -25545,7 +25472,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.12991900000000001</v>
       </c>
@@ -25553,7 +25480,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.129861</v>
       </c>
@@ -25561,7 +25488,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.129805</v>
       </c>
@@ -25569,7 +25496,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.12975100000000001</v>
       </c>
@@ -25577,7 +25504,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.12969800000000001</v>
       </c>
@@ -25585,7 +25512,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.12964600000000001</v>
       </c>
@@ -25593,7 +25520,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.12959599999999999</v>
       </c>
@@ -25601,7 +25528,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.129547</v>
       </c>
@@ -25609,7 +25536,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.1295</v>
       </c>
@@ -25617,7 +25544,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.12945499999999999</v>
       </c>
@@ -25625,7 +25552,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.129411</v>
       </c>
@@ -25633,7 +25560,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.12928799999999999</v>
       </c>
@@ -25641,7 +25568,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.12925</v>
       </c>
@@ -25649,7 +25576,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.12917899999999999</v>
       </c>
@@ -25657,7 +25584,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.12911400000000001</v>
       </c>
@@ -25665,7 +25592,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.129084</v>
       </c>
@@ -25673,7 +25600,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.129056</v>
       </c>
@@ -25681,7 +25608,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.129029</v>
       </c>
@@ -25689,7 +25616,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.12900300000000001</v>
       </c>
@@ -25697,7 +25624,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.12898000000000001</v>
       </c>
@@ -25705,7 +25632,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.12895799999999999</v>
       </c>
@@ -25713,7 +25640,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173">
         <v>0.128937</v>
       </c>
@@ -25721,7 +25648,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.128918</v>
       </c>
@@ -25729,7 +25656,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.12890099999999999</v>
       </c>
@@ -25737,7 +25664,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.128885</v>
       </c>
@@ -25745,7 +25672,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.12887100000000001</v>
       </c>
@@ -25753,7 +25680,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.12883900000000001</v>
       </c>
@@ -25761,7 +25688,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.128831</v>
       </c>
@@ -25769,7 +25696,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.128825</v>
       </c>
@@ -25777,7 +25704,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.12881899999999999</v>
       </c>
@@ -25785,7 +25712,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.12881799999999999</v>
       </c>
@@ -25793,7 +25720,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.12881799999999999</v>
       </c>
@@ -25801,7 +25728,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.12882099999999999</v>
       </c>
@@ -25809,7 +25736,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.128825</v>
       </c>
@@ -25817,7 +25744,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.128831</v>
       </c>
@@ -25825,7 +25752,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.12884799999999999</v>
       </c>
@@ -25833,7 +25760,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.128859</v>
       </c>
@@ -25841,7 +25768,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.128886</v>
       </c>
@@ -25849,7 +25776,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.12890199999999999</v>
       </c>
@@ -25857,7 +25784,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.128939</v>
       </c>
@@ -25865,7 +25792,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.12896099999999999</v>
       </c>
@@ -25873,7 +25800,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193">
         <v>0.12898399999999999</v>
       </c>
@@ -25881,7 +25808,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.12900800000000001</v>
       </c>
@@ -25889,7 +25816,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.12903500000000001</v>
       </c>
@@ -25897,7 +25824,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.12906300000000001</v>
       </c>
@@ -25905,7 +25832,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197">
         <v>0.12909300000000001</v>
       </c>
@@ -25913,7 +25840,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.12912499999999999</v>
       </c>
@@ -25921,7 +25848,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.129159</v>
       </c>
@@ -25929,7 +25856,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.129194</v>
       </c>
@@ -25937,7 +25864,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.12927</v>
       </c>
@@ -25945,7 +25872,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202">
         <v>0.129354</v>
       </c>
@@ -25953,7 +25880,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203">
         <v>0.12939800000000001</v>
       </c>
@@ -25961,7 +25888,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204">
         <v>0.129444</v>
       </c>
@@ -25969,7 +25896,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205">
         <v>0.129492</v>
       </c>
@@ -25977,7 +25904,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206">
         <v>0.12954199999999999</v>
       </c>
@@ -25985,7 +25912,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207">
         <v>0.12959399999999999</v>
       </c>
@@ -25993,7 +25920,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208">
         <v>0.12964700000000001</v>
       </c>
@@ -26001,7 +25928,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209">
         <v>0.12970300000000001</v>
       </c>
@@ -26009,7 +25936,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210">
         <v>0.12975999999999999</v>
       </c>
@@ -26017,7 +25944,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211">
         <v>0.12988</v>
       </c>
@@ -26025,7 +25952,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212">
         <v>0.129942</v>
       </c>
@@ -26033,7 +25960,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213">
         <v>0.13000700000000001</v>
       </c>
@@ -26041,7 +25968,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214">
         <v>0.130074</v>
       </c>
@@ -26049,7 +25976,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215">
         <v>0.13014200000000001</v>
       </c>
@@ -26057,7 +25984,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216">
         <v>0.13021199999999999</v>
       </c>
@@ -26075,15 +26002,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -26312,6 +26230,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -26321,14 +26248,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9DB222-0F4D-4FD5-8C4B-98B33BC10001}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26343,6 +26262,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6A685E10-A004-4175-9CB8-7A5AFC20C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B4B991-E4CD-4C35-A227-DF91151E6132}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="696" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="696" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -11447,7 +11447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE59662-707B-4A33-B0E4-F8A5EA30B87F}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -12345,7 +12345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
@@ -26231,20 +26231,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26267,14 +26267,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -26289,4 +26281,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/Li2SO4 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6A685E10-A004-4175-9CB8-7A5AFC20C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B4B991-E4CD-4C35-A227-DF91151E6132}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{6A685E10-A004-4175-9CB8-7A5AFC20C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24A94C2A-6927-4F44-B570-FC8AAA6A42A4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="696" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="696" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -10974,6 +10974,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -11447,7 +11451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE59662-707B-4A33-B0E4-F8A5EA30B87F}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -12345,8 +12349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BK13" sqref="BK13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9:AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26231,20 +26235,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26267,6 +26271,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -26281,12 +26293,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>